--- a/importTemplate.xlsx
+++ b/importTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umassd-my.sharepoint.com/personal/mbisbano1_umassd_edu/Documents/Winter21_22_Work_For_DrBrown/MatlabWork/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\MatlabSmartPolarPlots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC1048E0F91F74EE5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AD31E12-0A2E-4073-8E3A-4DD616198BC7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78603101-36CB-41C7-87FC-D3A8FF5D59E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2805" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,6481 +346,6490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B719"/>
+  <dimension ref="A1:B720"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A709" workbookViewId="0">
+      <selection activeCell="D719" sqref="D719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <f>COS(RADIANS(A1))</f>
-        <v>0.99996192306417131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B65" si="0">COS(RADIANS(A2))</f>
-        <v>0.99984769515639127</v>
+        <f>COS(RADIANS(A2))</f>
+        <v>0.99996192306417131</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">COS(RADIANS(A3))</f>
+        <v>0.99984769515639127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1.5</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <f t="shared" si="0"/>
         <v>0.99965732497555726</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f t="shared" si="0"/>
         <v>0.99939082701909576</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2.5</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>0.9990482215818578</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>0.99862953475457383</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>3.5</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>0.99813479842186692</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>0.9975640502598242</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>4.5</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>0.99691733373312796</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>0.99619469809174555</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>5.5</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>0.99539619836717885</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>0.99452189536827329</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>6.5</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <f t="shared" si="0"/>
         <v>0.99357185567658746</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <f t="shared" si="0"/>
         <v>0.99254615164132198</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>7.5</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <f t="shared" si="0"/>
         <v>0.99144486137381038</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>8</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <f t="shared" si="0"/>
         <v>0.99026806874157036</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>8.5</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <f t="shared" si="0"/>
         <v>0.98901586336191682</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>9</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <f t="shared" si="0"/>
         <v>0.98768834059513777</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>9.5</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <f t="shared" si="0"/>
         <v>0.98628560153723144</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>10</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <f t="shared" si="0"/>
         <v>0.98480775301220802</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>10.5</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <f t="shared" si="0"/>
         <v>0.98325490756395462</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>11</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <f t="shared" si="0"/>
         <v>0.98162718344766398</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>11.5</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <f t="shared" si="0"/>
         <v>0.97992470462082959</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>12</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <f t="shared" si="0"/>
         <v>0.97814760073380569</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>12.5</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <f t="shared" si="0"/>
         <v>0.97629600711993336</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>13</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <f t="shared" si="0"/>
         <v>0.97437006478523525</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>13.5</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <f t="shared" si="0"/>
         <v>0.97236992039767656</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>14</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <f t="shared" si="0"/>
         <v>0.97029572627599647</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>14.5</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <f t="shared" si="0"/>
         <v>0.96814764037810774</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>15</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <f t="shared" si="0"/>
         <v>0.96592582628906831</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>15.5</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <f t="shared" si="0"/>
         <v>0.96363045320862295</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>16</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <f t="shared" si="0"/>
         <v>0.96126169593831889</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>16.5</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <f t="shared" si="0"/>
         <v>0.95881973486819305</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>17</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <f t="shared" si="0"/>
         <v>0.95630475596303544</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>17.5</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <f t="shared" si="0"/>
         <v>0.95371695074822693</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>18</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <f t="shared" si="0"/>
         <v>0.95105651629515353</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>18.5</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <f t="shared" si="0"/>
         <v>0.94832365520619932</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>19</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <f t="shared" si="0"/>
         <v>0.94551857559931685</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>19.5</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <f t="shared" si="0"/>
         <v>0.94264149109217843</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>20</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <f t="shared" si="0"/>
         <v>0.93969262078590843</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>20.5</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <f t="shared" si="0"/>
         <v>0.93667218924839757</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>21</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <f t="shared" si="0"/>
         <v>0.93358042649720174</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>21.5</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <f t="shared" si="0"/>
         <v>0.93041756798202457</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>22</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <f t="shared" si="0"/>
         <v>0.92718385456678742</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>22.5</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <f t="shared" si="0"/>
         <v>0.92387953251128674</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>23</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <f t="shared" si="0"/>
         <v>0.92050485345244037</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>23.5</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <f t="shared" si="0"/>
         <v>0.91706007438512405</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>24</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <f t="shared" si="0"/>
         <v>0.91354545764260087</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>24.5</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <f t="shared" si="0"/>
         <v>0.90996127087654322</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>25</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <f t="shared" si="0"/>
         <v>0.90630778703664994</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>25.5</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <f t="shared" si="0"/>
         <v>0.90258528434986063</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>26</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <f t="shared" si="0"/>
         <v>0.89879404629916704</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>26.5</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <f t="shared" si="0"/>
         <v>0.89493436160202511</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>27</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <f t="shared" si="0"/>
         <v>0.8910065241883679</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>27.5</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <f t="shared" si="0"/>
         <v>0.88701083317822171</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>28</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <f t="shared" si="0"/>
         <v>0.88294759285892699</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>28.5</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <f t="shared" si="0"/>
         <v>0.87881711266196538</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>29</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <f t="shared" si="0"/>
         <v>0.87461970713939574</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>29.5</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <f t="shared" si="0"/>
         <v>0.8703556959398997</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>30</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <f t="shared" si="0"/>
         <v>0.86602540378443871</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>30.5</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <f t="shared" si="0"/>
         <v>0.86162916044152582</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>31</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <f t="shared" si="0"/>
         <v>0.85716730070211233</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>31.5</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <f t="shared" si="0"/>
         <v>0.85264016435409218</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>32</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <f t="shared" si="0"/>
         <v>0.84804809615642596</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>32.5</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <f t="shared" si="0"/>
         <v>0.84339144581288572</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>33</v>
-      </c>
-      <c r="B66">
-        <f t="shared" ref="B66:B129" si="1">COS(RADIANS(A66))</f>
-        <v>0.83867056794542405</v>
-      </c>
-    </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
+        <v>33</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B130" si="1">COS(RADIANS(A67))</f>
+        <v>0.83867056794542405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>33.5</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <f t="shared" si="1"/>
         <v>0.83388582206716821</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>34</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <f t="shared" si="1"/>
         <v>0.82903757255504162</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>34.5</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <f t="shared" si="1"/>
         <v>0.8241261886220157</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>35</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <f t="shared" si="1"/>
         <v>0.8191520442889918</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>35.5</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <f t="shared" si="1"/>
         <v>0.81411551835631923</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>36</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <f t="shared" si="1"/>
         <v>0.80901699437494745</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>36.5</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <f t="shared" si="1"/>
         <v>0.80385686061721728</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>37</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <f t="shared" si="1"/>
         <v>0.79863551004729283</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>37.5</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <f t="shared" si="1"/>
         <v>0.79335334029123517</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>38</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <f t="shared" si="1"/>
         <v>0.7880107536067219</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>38.5</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <f t="shared" si="1"/>
         <v>0.78260815685241392</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>39</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <f t="shared" si="1"/>
         <v>0.7771459614569709</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>39.5</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <f t="shared" si="1"/>
         <v>0.77162458338772</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>40</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <f t="shared" si="1"/>
         <v>0.76604444311897801</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>40.5</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <f t="shared" si="1"/>
         <v>0.76040596560003093</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>41</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <f t="shared" si="1"/>
         <v>0.75470958022277201</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>41.5</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <f t="shared" si="1"/>
         <v>0.74895572078900219</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>42</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <f t="shared" si="1"/>
         <v>0.74314482547739424</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>42.5</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <f t="shared" si="1"/>
         <v>0.73727733681012397</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>43</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <f t="shared" si="1"/>
         <v>0.73135370161917046</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>43.5</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <f t="shared" si="1"/>
         <v>0.72537437101228763</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>44</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <f t="shared" si="1"/>
         <v>0.71933980033865119</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>44.5</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <f t="shared" si="1"/>
         <v>0.71325044915418156</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>45</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <f t="shared" si="1"/>
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>45.5</v>
       </c>
-      <c r="B91">
+      <c r="B92">
         <f t="shared" si="1"/>
         <v>0.7009092642998509</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>46</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <f t="shared" si="1"/>
         <v>0.69465837045899725</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>46.5</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <f t="shared" si="1"/>
         <v>0.68835457569375402</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>47</v>
       </c>
-      <c r="B94">
+      <c r="B95">
         <f t="shared" si="1"/>
         <v>0.68199836006249848</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>47.5</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <f t="shared" si="1"/>
         <v>0.67559020761566024</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>48</v>
       </c>
-      <c r="B96">
+      <c r="B97">
         <f t="shared" si="1"/>
         <v>0.66913060635885824</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>48.5</v>
       </c>
-      <c r="B97">
+      <c r="B98">
         <f t="shared" si="1"/>
         <v>0.6626200482157375</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>49</v>
       </c>
-      <c r="B98">
+      <c r="B99">
         <f t="shared" si="1"/>
         <v>0.65605902899050728</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>49.5</v>
       </c>
-      <c r="B99">
+      <c r="B100">
         <f t="shared" si="1"/>
         <v>0.64944804833018366</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>50</v>
       </c>
-      <c r="B100">
+      <c r="B101">
         <f t="shared" si="1"/>
         <v>0.64278760968653936</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>50.5</v>
       </c>
-      <c r="B101">
+      <c r="B102">
         <f t="shared" si="1"/>
         <v>0.63607822027776395</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>51</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <f t="shared" si="1"/>
         <v>0.6293203910498375</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>51.5</v>
       </c>
-      <c r="B103">
+      <c r="B104">
         <f t="shared" si="1"/>
         <v>0.62251463663761952</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>52</v>
       </c>
-      <c r="B104">
+      <c r="B105">
         <f t="shared" si="1"/>
         <v>0.61566147532565829</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>52.5</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <f t="shared" si="1"/>
         <v>0.60876142900872066</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>53</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <f t="shared" si="1"/>
         <v>0.60181502315204838</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>53.5</v>
       </c>
-      <c r="B107">
+      <c r="B108">
         <f t="shared" si="1"/>
         <v>0.59482278675134137</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>54</v>
       </c>
-      <c r="B108">
+      <c r="B109">
         <f t="shared" si="1"/>
         <v>0.58778525229247314</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>54.5</v>
       </c>
-      <c r="B109">
+      <c r="B110">
         <f t="shared" si="1"/>
         <v>0.58070295571093977</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>55</v>
       </c>
-      <c r="B110">
+      <c r="B111">
         <f t="shared" si="1"/>
         <v>0.57357643635104616</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>55.5</v>
       </c>
-      <c r="B111">
+      <c r="B112">
         <f t="shared" si="1"/>
         <v>0.56640623692483283</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>56</v>
       </c>
-      <c r="B112">
+      <c r="B113">
         <f t="shared" si="1"/>
         <v>0.55919290347074679</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>56.5</v>
       </c>
-      <c r="B113">
+      <c r="B114">
         <f t="shared" si="1"/>
         <v>0.55193698531205815</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>57</v>
       </c>
-      <c r="B114">
+      <c r="B115">
         <f t="shared" si="1"/>
         <v>0.54463903501502708</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>57.5</v>
       </c>
-      <c r="B115">
+      <c r="B116">
         <f t="shared" si="1"/>
         <v>0.53729960834682389</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>58</v>
       </c>
-      <c r="B116">
+      <c r="B117">
         <f t="shared" si="1"/>
         <v>0.5299192642332049</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>58.5</v>
       </c>
-      <c r="B117">
+      <c r="B118">
         <f t="shared" si="1"/>
         <v>0.52249856471594891</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>59</v>
       </c>
-      <c r="B118">
+      <c r="B119">
         <f t="shared" si="1"/>
         <v>0.51503807491005416</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>59.5</v>
       </c>
-      <c r="B119">
+      <c r="B120">
         <f t="shared" si="1"/>
         <v>0.5075383629607042</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>60</v>
       </c>
-      <c r="B120">
+      <c r="B121">
         <f t="shared" si="1"/>
         <v>0.50000000000000011</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>60.5</v>
       </c>
-      <c r="B121">
+      <c r="B122">
         <f t="shared" si="1"/>
         <v>0.49242356010346711</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>61</v>
       </c>
-      <c r="B122">
+      <c r="B123">
         <f t="shared" si="1"/>
         <v>0.48480962024633711</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>61.5</v>
       </c>
-      <c r="B123">
+      <c r="B124">
         <f t="shared" si="1"/>
         <v>0.47715876025960841</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>62</v>
       </c>
-      <c r="B124">
+      <c r="B125">
         <f t="shared" si="1"/>
         <v>0.46947156278589086</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>62.5</v>
       </c>
-      <c r="B125">
+      <c r="B126">
         <f t="shared" si="1"/>
         <v>0.46174861323503386</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>63</v>
       </c>
-      <c r="B126">
+      <c r="B127">
         <f t="shared" si="1"/>
         <v>0.4539904997395468</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>63.5</v>
       </c>
-      <c r="B127">
+      <c r="B128">
         <f t="shared" si="1"/>
         <v>0.44619781310980872</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>64</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <f t="shared" si="1"/>
         <v>0.43837114678907746</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>64.5</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <f t="shared" si="1"/>
         <v>0.43051109680829525</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>65</v>
-      </c>
-      <c r="B130">
-        <f t="shared" ref="B130:B193" si="2">COS(RADIANS(A130))</f>
-        <v>0.42261826174069944</v>
-      </c>
-    </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
+        <v>65</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ref="B131:B194" si="2">COS(RADIANS(A131))</f>
+        <v>0.42261826174069944</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>65.5</v>
       </c>
-      <c r="B131">
+      <c r="B132">
         <f t="shared" si="2"/>
         <v>0.41469324265623914</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>66</v>
       </c>
-      <c r="B132">
+      <c r="B133">
         <f t="shared" si="2"/>
         <v>0.40673664307580021</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>66.5</v>
       </c>
-      <c r="B133">
+      <c r="B134">
         <f t="shared" si="2"/>
         <v>0.39874906892524625</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>67</v>
       </c>
-      <c r="B134">
+      <c r="B135">
         <f t="shared" si="2"/>
         <v>0.39073112848927372</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>67.5</v>
       </c>
-      <c r="B135">
+      <c r="B136">
         <f t="shared" si="2"/>
         <v>0.38268343236508984</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>68</v>
       </c>
-      <c r="B136">
+      <c r="B137">
         <f t="shared" si="2"/>
         <v>0.37460659341591196</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>68.5</v>
       </c>
-      <c r="B137">
+      <c r="B138">
         <f t="shared" si="2"/>
         <v>0.3665012267242973</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>69</v>
       </c>
-      <c r="B138">
+      <c r="B139">
         <f t="shared" si="2"/>
         <v>0.35836794954530038</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>69.5</v>
       </c>
-      <c r="B139">
+      <c r="B140">
         <f t="shared" si="2"/>
         <v>0.35020738125946743</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>70</v>
       </c>
-      <c r="B140">
+      <c r="B141">
         <f t="shared" si="2"/>
         <v>0.34202014332566882</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>70.5</v>
       </c>
-      <c r="B141">
+      <c r="B142">
         <f t="shared" si="2"/>
         <v>0.3338068592337709</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>71</v>
       </c>
-      <c r="B142">
+      <c r="B143">
         <f t="shared" si="2"/>
         <v>0.32556815445715676</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>71.5</v>
       </c>
-      <c r="B143">
+      <c r="B144">
         <f t="shared" si="2"/>
         <v>0.31730465640509209</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>72</v>
       </c>
-      <c r="B144">
+      <c r="B145">
         <f t="shared" si="2"/>
         <v>0.30901699437494745</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>72.5</v>
       </c>
-      <c r="B145">
+      <c r="B146">
         <f t="shared" si="2"/>
         <v>0.30070579950427306</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>73</v>
       </c>
-      <c r="B146">
+      <c r="B147">
         <f t="shared" si="2"/>
         <v>0.29237170472273677</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>73.5</v>
       </c>
-      <c r="B147">
+      <c r="B148">
         <f t="shared" si="2"/>
         <v>0.28401534470392276</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>74</v>
       </c>
-      <c r="B148">
+      <c r="B149">
         <f t="shared" si="2"/>
         <v>0.27563735581699916</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>74.5</v>
       </c>
-      <c r="B149">
+      <c r="B150">
         <f t="shared" si="2"/>
         <v>0.26723837607825696</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>75</v>
       </c>
-      <c r="B150">
+      <c r="B151">
         <f t="shared" si="2"/>
         <v>0.25881904510252074</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>75.5</v>
       </c>
-      <c r="B151">
+      <c r="B152">
         <f t="shared" si="2"/>
         <v>0.2503800040544415</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>76</v>
       </c>
-      <c r="B152">
+      <c r="B153">
         <f t="shared" si="2"/>
         <v>0.24192189559966767</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>76.5</v>
       </c>
-      <c r="B153">
+      <c r="B154">
         <f t="shared" si="2"/>
         <v>0.23344536385590547</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>77</v>
       </c>
-      <c r="B154">
+      <c r="B155">
         <f t="shared" si="2"/>
         <v>0.22495105434386492</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>77.5</v>
       </c>
-      <c r="B155">
+      <c r="B156">
         <f t="shared" si="2"/>
         <v>0.2164396139381029</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>78</v>
       </c>
-      <c r="B156">
+      <c r="B157">
         <f t="shared" si="2"/>
         <v>0.20791169081775945</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>78.5</v>
       </c>
-      <c r="B157">
+      <c r="B158">
         <f t="shared" si="2"/>
         <v>0.19936793441719719</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>79</v>
       </c>
-      <c r="B158">
+      <c r="B159">
         <f t="shared" si="2"/>
         <v>0.19080899537654492</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>79.5</v>
       </c>
-      <c r="B159">
+      <c r="B160">
         <f t="shared" si="2"/>
         <v>0.18223552549214744</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>80</v>
       </c>
-      <c r="B160">
+      <c r="B161">
         <f t="shared" si="2"/>
         <v>0.17364817766693041</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>80.5</v>
       </c>
-      <c r="B161">
+      <c r="B162">
         <f t="shared" si="2"/>
         <v>0.1650476058606776</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>81</v>
       </c>
-      <c r="B162">
+      <c r="B163">
         <f t="shared" si="2"/>
         <v>0.15643446504023092</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>81.5</v>
       </c>
-      <c r="B163">
+      <c r="B164">
         <f t="shared" si="2"/>
         <v>0.14780941112961055</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>82</v>
       </c>
-      <c r="B164">
+      <c r="B165">
         <f t="shared" si="2"/>
         <v>0.13917310096006547</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>82.5</v>
       </c>
-      <c r="B165">
+      <c r="B166">
         <f t="shared" si="2"/>
         <v>0.13052619222005171</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>83</v>
       </c>
-      <c r="B166">
+      <c r="B167">
         <f t="shared" si="2"/>
         <v>0.12186934340514749</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>83.5</v>
       </c>
-      <c r="B167">
+      <c r="B168">
         <f t="shared" si="2"/>
         <v>0.11320321376790683</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
         <v>84</v>
       </c>
-      <c r="B168">
+      <c r="B169">
         <f t="shared" si="2"/>
         <v>0.10452846326765346</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
         <v>84.5</v>
       </c>
-      <c r="B169">
+      <c r="B170">
         <f t="shared" si="2"/>
         <v>9.5845752520224065E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
         <v>85</v>
       </c>
-      <c r="B170">
+      <c r="B171">
         <f t="shared" si="2"/>
         <v>8.7155742747658138E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
         <v>85.5</v>
       </c>
-      <c r="B171">
+      <c r="B172">
         <f t="shared" si="2"/>
         <v>7.8459095727844999E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
         <v>86</v>
       </c>
-      <c r="B172">
+      <c r="B173">
         <f t="shared" si="2"/>
         <v>6.9756473744125233E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
         <v>86.5</v>
       </c>
-      <c r="B173">
+      <c r="B174">
         <f t="shared" si="2"/>
         <v>6.1048539534856908E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
         <v>87</v>
       </c>
-      <c r="B174">
+      <c r="B175">
         <f t="shared" si="2"/>
         <v>5.2335956242943966E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
         <v>87.5</v>
       </c>
-      <c r="B175">
+      <c r="B176">
         <f t="shared" si="2"/>
         <v>4.3619387365336007E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>88</v>
       </c>
-      <c r="B176">
+      <c r="B177">
         <f t="shared" si="2"/>
         <v>3.489949670250108E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>88.5</v>
       </c>
-      <c r="B177">
+      <c r="B178">
         <f t="shared" si="2"/>
         <v>2.6176948307873139E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
         <v>89</v>
       </c>
-      <c r="B178">
+      <c r="B179">
         <f t="shared" si="2"/>
         <v>1.7452406437283598E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>89.5</v>
       </c>
-      <c r="B179">
+      <c r="B180">
         <f t="shared" si="2"/>
         <v>8.7265354983738965E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
         <v>90</v>
       </c>
-      <c r="B180">
+      <c r="B181">
         <f t="shared" si="2"/>
         <v>6.1257422745431001E-17</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>90.5</v>
       </c>
-      <c r="B181">
+      <c r="B182">
         <f t="shared" si="2"/>
         <v>-8.7265354983739971E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>91</v>
       </c>
-      <c r="B182">
+      <c r="B183">
         <f t="shared" si="2"/>
         <v>-1.7452406437283477E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>91.5</v>
       </c>
-      <c r="B183">
+      <c r="B184">
         <f t="shared" si="2"/>
         <v>-2.6176948307873017E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>92</v>
       </c>
-      <c r="B184">
+      <c r="B185">
         <f t="shared" si="2"/>
         <v>-3.4899496702500955E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>92.5</v>
       </c>
-      <c r="B185">
+      <c r="B186">
         <f t="shared" si="2"/>
         <v>-4.3619387365335889E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
         <v>93</v>
       </c>
-      <c r="B186">
+      <c r="B187">
         <f t="shared" si="2"/>
         <v>-5.2335956242943842E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>93.5</v>
       </c>
-      <c r="B187">
+      <c r="B188">
         <f t="shared" si="2"/>
         <v>-6.1048539534856783E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>94</v>
       </c>
-      <c r="B188">
+      <c r="B189">
         <f t="shared" si="2"/>
         <v>-6.975647374412533E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>94.5</v>
       </c>
-      <c r="B189">
+      <c r="B190">
         <f t="shared" si="2"/>
         <v>-7.8459095727844874E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
         <v>95</v>
       </c>
-      <c r="B190">
+      <c r="B191">
         <f t="shared" si="2"/>
         <v>-8.7155742747658235E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
         <v>95.5</v>
       </c>
-      <c r="B191">
+      <c r="B192">
         <f t="shared" si="2"/>
         <v>-9.5845752520223954E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>96</v>
       </c>
-      <c r="B192">
+      <c r="B193">
         <f t="shared" si="2"/>
         <v>-0.10452846326765355</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>96.5</v>
       </c>
-      <c r="B193">
+      <c r="B194">
         <f t="shared" si="2"/>
         <v>-0.11320321376790671</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>97</v>
-      </c>
-      <c r="B194">
-        <f t="shared" ref="B194:B257" si="3">COS(RADIANS(A194))</f>
-        <v>-0.12186934340514737</v>
-      </c>
-    </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
+        <v>97</v>
+      </c>
+      <c r="B195">
+        <f t="shared" ref="B195:B258" si="3">COS(RADIANS(A195))</f>
+        <v>-0.12186934340514737</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>97.5</v>
       </c>
-      <c r="B195">
+      <c r="B196">
         <f t="shared" si="3"/>
         <v>-0.1305261922200516</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
         <v>98</v>
       </c>
-      <c r="B196">
+      <c r="B197">
         <f t="shared" si="3"/>
         <v>-0.13917310096006535</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
         <v>98.5</v>
       </c>
-      <c r="B197">
+      <c r="B198">
         <f t="shared" si="3"/>
         <v>-0.14780941112961066</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
         <v>99</v>
       </c>
-      <c r="B198">
+      <c r="B199">
         <f t="shared" si="3"/>
         <v>-0.15643446504023081</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>99.5</v>
       </c>
-      <c r="B199">
+      <c r="B200">
         <f t="shared" si="3"/>
         <v>-0.16504760586067771</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>100</v>
       </c>
-      <c r="B200">
+      <c r="B201">
         <f t="shared" si="3"/>
         <v>-0.1736481776669303</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
         <v>100.5</v>
       </c>
-      <c r="B201">
+      <c r="B202">
         <f t="shared" si="3"/>
         <v>-0.18223552549214753</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
         <v>101</v>
       </c>
-      <c r="B202">
+      <c r="B203">
         <f t="shared" si="3"/>
         <v>-0.1908089953765448</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>101.5</v>
       </c>
-      <c r="B203">
+      <c r="B204">
         <f t="shared" si="3"/>
         <v>-0.19936793441719705</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>102</v>
       </c>
-      <c r="B204">
+      <c r="B205">
         <f t="shared" si="3"/>
         <v>-0.20791169081775934</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
         <v>102.5</v>
       </c>
-      <c r="B205">
+      <c r="B206">
         <f t="shared" si="3"/>
         <v>-0.21643961393810279</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
         <v>103</v>
       </c>
-      <c r="B206">
+      <c r="B207">
         <f t="shared" si="3"/>
         <v>-0.22495105434386503</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
         <v>103.5</v>
       </c>
-      <c r="B207">
+      <c r="B208">
         <f t="shared" si="3"/>
         <v>-0.23344536385590534</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
         <v>104</v>
       </c>
-      <c r="B208">
+      <c r="B209">
         <f t="shared" si="3"/>
         <v>-0.24192189559966779</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
         <v>104.5</v>
       </c>
-      <c r="B209">
+      <c r="B210">
         <f t="shared" si="3"/>
         <v>-0.25038000405444139</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
         <v>105</v>
       </c>
-      <c r="B210">
+      <c r="B211">
         <f t="shared" si="3"/>
         <v>-0.25881904510252085</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
         <v>105.5</v>
       </c>
-      <c r="B211">
+      <c r="B212">
         <f t="shared" si="3"/>
         <v>-0.26723837607825685</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
         <v>106</v>
       </c>
-      <c r="B212">
+      <c r="B213">
         <f t="shared" si="3"/>
         <v>-0.27563735581699905</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
         <v>106.5</v>
       </c>
-      <c r="B213">
+      <c r="B214">
         <f t="shared" si="3"/>
         <v>-0.28401534470392265</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
         <v>107</v>
       </c>
-      <c r="B214">
+      <c r="B215">
         <f t="shared" si="3"/>
         <v>-0.29237170472273666</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
         <v>107.5</v>
       </c>
-      <c r="B215">
+      <c r="B216">
         <f t="shared" si="3"/>
         <v>-0.30070579950427312</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
         <v>108</v>
       </c>
-      <c r="B216">
+      <c r="B217">
         <f t="shared" si="3"/>
         <v>-0.30901699437494734</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
         <v>108.5</v>
       </c>
-      <c r="B217">
+      <c r="B218">
         <f t="shared" si="3"/>
         <v>-0.3173046564050922</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
         <v>109</v>
       </c>
-      <c r="B218">
+      <c r="B219">
         <f t="shared" si="3"/>
         <v>-0.32556815445715664</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
         <v>109.5</v>
       </c>
-      <c r="B219">
+      <c r="B220">
         <f t="shared" si="3"/>
         <v>-0.33380685923377101</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
         <v>110</v>
       </c>
-      <c r="B220">
+      <c r="B221">
         <f t="shared" si="3"/>
         <v>-0.34202014332566871</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
         <v>110.5</v>
       </c>
-      <c r="B221">
+      <c r="B222">
         <f t="shared" si="3"/>
         <v>-0.35020738125946732</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
         <v>111</v>
       </c>
-      <c r="B222">
+      <c r="B223">
         <f t="shared" si="3"/>
         <v>-0.35836794954530027</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>111.5</v>
       </c>
-      <c r="B223">
+      <c r="B224">
         <f t="shared" si="3"/>
         <v>-0.36650122672429719</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
         <v>112</v>
       </c>
-      <c r="B224">
+      <c r="B225">
         <f t="shared" si="3"/>
         <v>-0.37460659341591207</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
         <v>112.5</v>
       </c>
-      <c r="B225">
+      <c r="B226">
         <f t="shared" si="3"/>
         <v>-0.38268343236508973</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
         <v>113</v>
       </c>
-      <c r="B226">
+      <c r="B227">
         <f t="shared" si="3"/>
         <v>-0.39073112848927377</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
         <v>113.5</v>
       </c>
-      <c r="B227">
+      <c r="B228">
         <f t="shared" si="3"/>
         <v>-0.39874906892524614</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
         <v>114</v>
       </c>
-      <c r="B228">
+      <c r="B229">
         <f t="shared" si="3"/>
         <v>-0.40673664307580026</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
         <v>114.5</v>
       </c>
-      <c r="B229">
+      <c r="B230">
         <f t="shared" si="3"/>
         <v>-0.41469324265623903</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
         <v>115</v>
       </c>
-      <c r="B230">
+      <c r="B231">
         <f t="shared" si="3"/>
         <v>-0.42261826174069933</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
         <v>115.5</v>
       </c>
-      <c r="B231">
+      <c r="B232">
         <f t="shared" si="3"/>
         <v>-0.43051109680829491</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
         <v>116</v>
       </c>
-      <c r="B232">
+      <c r="B233">
         <f t="shared" si="3"/>
         <v>-0.43837114678907751</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
         <v>116.5</v>
       </c>
-      <c r="B233">
+      <c r="B234">
         <f t="shared" si="3"/>
         <v>-0.44619781310980883</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>117</v>
       </c>
-      <c r="B234">
+      <c r="B235">
         <f t="shared" si="3"/>
         <v>-0.45399049973954669</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
         <v>117.5</v>
       </c>
-      <c r="B235">
+      <c r="B236">
         <f t="shared" si="3"/>
         <v>-0.46174861323503374</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
         <v>118</v>
       </c>
-      <c r="B236">
+      <c r="B237">
         <f t="shared" si="3"/>
         <v>-0.46947156278589092</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
         <v>118.5</v>
       </c>
-      <c r="B237">
+      <c r="B238">
         <f t="shared" si="3"/>
         <v>-0.47715876025960846</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
         <v>119</v>
       </c>
-      <c r="B238">
+      <c r="B239">
         <f t="shared" si="3"/>
         <v>-0.484809620246337</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
         <v>119.5</v>
       </c>
-      <c r="B239">
+      <c r="B240">
         <f t="shared" si="3"/>
         <v>-0.492423560103467</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
         <v>120</v>
       </c>
-      <c r="B240">
+      <c r="B241">
         <f t="shared" si="3"/>
         <v>-0.49999999999999978</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
         <v>120.5</v>
       </c>
-      <c r="B241">
+      <c r="B242">
         <f t="shared" si="3"/>
         <v>-0.50753836296070431</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
         <v>121</v>
       </c>
-      <c r="B242">
+      <c r="B243">
         <f t="shared" si="3"/>
         <v>-0.51503807491005427</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
         <v>121.5</v>
       </c>
-      <c r="B243">
+      <c r="B244">
         <f t="shared" si="3"/>
         <v>-0.5224985647159488</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
         <v>122</v>
       </c>
-      <c r="B244">
+      <c r="B245">
         <f t="shared" si="3"/>
         <v>-0.52991926423320479</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
         <v>122.5</v>
       </c>
-      <c r="B245">
+      <c r="B246">
         <f t="shared" si="3"/>
         <v>-0.537299608346824</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
         <v>123</v>
       </c>
-      <c r="B246">
+      <c r="B247">
         <f t="shared" si="3"/>
         <v>-0.54463903501502708</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
         <v>123.5</v>
       </c>
-      <c r="B247">
+      <c r="B248">
         <f t="shared" si="3"/>
         <v>-0.55193698531205815</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
         <v>124</v>
       </c>
-      <c r="B248">
+      <c r="B249">
         <f t="shared" si="3"/>
         <v>-0.55919290347074668</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
         <v>124.5</v>
       </c>
-      <c r="B249">
+      <c r="B250">
         <f t="shared" si="3"/>
         <v>-0.56640623692483261</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
         <v>125</v>
       </c>
-      <c r="B250">
+      <c r="B251">
         <f t="shared" si="3"/>
         <v>-0.57357643635104616</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
         <v>125.5</v>
       </c>
-      <c r="B251">
+      <c r="B252">
         <f t="shared" si="3"/>
         <v>-0.58070295571093977</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
         <v>126</v>
       </c>
-      <c r="B252">
+      <c r="B253">
         <f t="shared" si="3"/>
         <v>-0.58778525229247303</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
         <v>126.5</v>
       </c>
-      <c r="B253">
+      <c r="B254">
         <f t="shared" si="3"/>
         <v>-0.59482278675134115</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
         <v>127</v>
       </c>
-      <c r="B254">
+      <c r="B255">
         <f t="shared" si="3"/>
         <v>-0.60181502315204838</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
         <v>127.5</v>
       </c>
-      <c r="B255">
+      <c r="B256">
         <f t="shared" si="3"/>
         <v>-0.60876142900872066</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
         <v>128</v>
       </c>
-      <c r="B256">
+      <c r="B257">
         <f t="shared" si="3"/>
         <v>-0.61566147532565829</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
         <v>128.5</v>
       </c>
-      <c r="B257">
+      <c r="B258">
         <f t="shared" si="3"/>
         <v>-0.62251463663761941</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>129</v>
-      </c>
-      <c r="B258">
-        <f t="shared" ref="B258:B321" si="4">COS(RADIANS(A258))</f>
-        <v>-0.62932039104983728</v>
-      </c>
-    </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
+        <v>129</v>
+      </c>
+      <c r="B259">
+        <f t="shared" ref="B259:B322" si="4">COS(RADIANS(A259))</f>
+        <v>-0.62932039104983728</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
         <v>129.5</v>
       </c>
-      <c r="B259">
+      <c r="B260">
         <f t="shared" si="4"/>
         <v>-0.63607822027776406</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
         <v>130</v>
       </c>
-      <c r="B260">
+      <c r="B261">
         <f t="shared" si="4"/>
         <v>-0.64278760968653936</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
         <v>130.5</v>
       </c>
-      <c r="B261">
+      <c r="B262">
         <f t="shared" si="4"/>
         <v>-0.64944804833018355</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
         <v>131</v>
       </c>
-      <c r="B262">
+      <c r="B263">
         <f t="shared" si="4"/>
         <v>-0.65605902899050716</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
         <v>131.5</v>
       </c>
-      <c r="B263">
+      <c r="B264">
         <f t="shared" si="4"/>
         <v>-0.66262004821573761</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
         <v>132</v>
       </c>
-      <c r="B264">
+      <c r="B265">
         <f t="shared" si="4"/>
         <v>-0.66913060635885824</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
         <v>132.5</v>
       </c>
-      <c r="B265">
+      <c r="B266">
         <f t="shared" si="4"/>
         <v>-0.67559020761566024</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
         <v>133</v>
       </c>
-      <c r="B266">
+      <c r="B267">
         <f t="shared" si="4"/>
         <v>-0.68199836006249837</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
         <v>133.5</v>
       </c>
-      <c r="B267">
+      <c r="B268">
         <f t="shared" si="4"/>
         <v>-0.6883545756937538</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
         <v>134</v>
       </c>
-      <c r="B268">
+      <c r="B269">
         <f t="shared" si="4"/>
         <v>-0.69465837045899737</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
         <v>134.5</v>
       </c>
-      <c r="B269">
+      <c r="B270">
         <f t="shared" si="4"/>
         <v>-0.7009092642998509</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
         <v>135</v>
       </c>
-      <c r="B270">
+      <c r="B271">
         <f t="shared" si="4"/>
         <v>-0.70710678118654746</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
         <v>135.5</v>
       </c>
-      <c r="B271">
+      <c r="B272">
         <f t="shared" si="4"/>
         <v>-0.71325044915418145</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
         <v>136</v>
       </c>
-      <c r="B272">
+      <c r="B273">
         <f t="shared" si="4"/>
         <v>-0.71933980033865119</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
         <v>136.5</v>
       </c>
-      <c r="B273">
+      <c r="B274">
         <f t="shared" si="4"/>
         <v>-0.72537437101228763</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
         <v>137</v>
       </c>
-      <c r="B274">
+      <c r="B275">
         <f t="shared" si="4"/>
         <v>-0.73135370161917046</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
         <v>137.5</v>
       </c>
-      <c r="B275">
+      <c r="B276">
         <f t="shared" si="4"/>
         <v>-0.73727733681012397</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
         <v>138</v>
       </c>
-      <c r="B276">
+      <c r="B277">
         <f t="shared" si="4"/>
         <v>-0.74314482547739402</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
         <v>138.5</v>
       </c>
-      <c r="B277">
+      <c r="B278">
         <f t="shared" si="4"/>
         <v>-0.74895572078900219</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
         <v>139</v>
       </c>
-      <c r="B278">
+      <c r="B279">
         <f t="shared" si="4"/>
         <v>-0.75470958022277201</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
         <v>139.5</v>
       </c>
-      <c r="B279">
+      <c r="B280">
         <f t="shared" si="4"/>
         <v>-0.76040596560003093</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
         <v>140</v>
       </c>
-      <c r="B280">
+      <c r="B281">
         <f t="shared" si="4"/>
         <v>-0.7660444431189779</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
         <v>140.5</v>
       </c>
-      <c r="B281">
+      <c r="B282">
         <f t="shared" si="4"/>
         <v>-0.77162458338772011</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
         <v>141</v>
       </c>
-      <c r="B282">
+      <c r="B283">
         <f t="shared" si="4"/>
         <v>-0.7771459614569709</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
         <v>141.5</v>
       </c>
-      <c r="B283">
+      <c r="B284">
         <f t="shared" si="4"/>
         <v>-0.78260815685241392</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
         <v>142</v>
       </c>
-      <c r="B284">
+      <c r="B285">
         <f t="shared" si="4"/>
         <v>-0.7880107536067219</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
         <v>142.5</v>
       </c>
-      <c r="B285">
+      <c r="B286">
         <f t="shared" si="4"/>
         <v>-0.79335334029123505</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
         <v>143</v>
       </c>
-      <c r="B286">
+      <c r="B287">
         <f t="shared" si="4"/>
         <v>-0.79863551004729294</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
         <v>143.5</v>
       </c>
-      <c r="B287">
+      <c r="B288">
         <f t="shared" si="4"/>
         <v>-0.80385686061721728</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
         <v>144</v>
       </c>
-      <c r="B288">
+      <c r="B289">
         <f t="shared" si="4"/>
         <v>-0.80901699437494734</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
         <v>144.5</v>
       </c>
-      <c r="B289">
+      <c r="B290">
         <f t="shared" si="4"/>
         <v>-0.81411551835631912</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
         <v>145</v>
       </c>
-      <c r="B290">
+      <c r="B291">
         <f t="shared" si="4"/>
         <v>-0.81915204428899191</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
         <v>145.5</v>
       </c>
-      <c r="B291">
+      <c r="B292">
         <f t="shared" si="4"/>
         <v>-0.8241261886220157</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
         <v>146</v>
       </c>
-      <c r="B292">
+      <c r="B293">
         <f t="shared" si="4"/>
         <v>-0.82903757255504162</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
         <v>146.5</v>
       </c>
-      <c r="B293">
+      <c r="B294">
         <f t="shared" si="4"/>
         <v>-0.8338858220671681</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
         <v>147</v>
       </c>
-      <c r="B294">
+      <c r="B295">
         <f t="shared" si="4"/>
         <v>-0.83867056794542394</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
         <v>147.5</v>
       </c>
-      <c r="B295">
+      <c r="B296">
         <f t="shared" si="4"/>
         <v>-0.84339144581288572</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
         <v>148</v>
       </c>
-      <c r="B296">
+      <c r="B297">
         <f t="shared" si="4"/>
         <v>-0.84804809615642596</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
         <v>148.5</v>
       </c>
-      <c r="B297">
+      <c r="B298">
         <f t="shared" si="4"/>
         <v>-0.85264016435409218</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
         <v>149</v>
       </c>
-      <c r="B298">
+      <c r="B299">
         <f t="shared" si="4"/>
         <v>-0.85716730070211222</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
         <v>149.5</v>
       </c>
-      <c r="B299">
+      <c r="B300">
         <f t="shared" si="4"/>
         <v>-0.86162916044152582</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
         <v>150</v>
       </c>
-      <c r="B300">
+      <c r="B301">
         <f t="shared" si="4"/>
         <v>-0.86602540378443871</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
         <v>150.5</v>
       </c>
-      <c r="B301">
+      <c r="B302">
         <f t="shared" si="4"/>
         <v>-0.8703556959398997</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
         <v>151</v>
       </c>
-      <c r="B302">
+      <c r="B303">
         <f t="shared" si="4"/>
         <v>-0.87461970713939574</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
         <v>151.5</v>
       </c>
-      <c r="B303">
+      <c r="B304">
         <f t="shared" si="4"/>
         <v>-0.87881711266196527</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
         <v>152</v>
       </c>
-      <c r="B304">
+      <c r="B305">
         <f t="shared" si="4"/>
         <v>-0.88294759285892699</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
         <v>152.5</v>
       </c>
-      <c r="B305">
+      <c r="B306">
         <f t="shared" si="4"/>
         <v>-0.88701083317822171</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
         <v>153</v>
       </c>
-      <c r="B306">
+      <c r="B307">
         <f t="shared" si="4"/>
         <v>-0.89100652418836779</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
         <v>153.5</v>
       </c>
-      <c r="B307">
+      <c r="B308">
         <f t="shared" si="4"/>
         <v>-0.894934361602025</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
         <v>154</v>
       </c>
-      <c r="B308">
+      <c r="B309">
         <f t="shared" si="4"/>
         <v>-0.89879404629916704</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
         <v>154.5</v>
       </c>
-      <c r="B309">
+      <c r="B310">
         <f t="shared" si="4"/>
         <v>-0.90258528434986063</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
         <v>155</v>
       </c>
-      <c r="B310">
+      <c r="B311">
         <f t="shared" si="4"/>
         <v>-0.90630778703664994</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
         <v>155.5</v>
       </c>
-      <c r="B311">
+      <c r="B312">
         <f t="shared" si="4"/>
         <v>-0.9099612708765431</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
         <v>156</v>
       </c>
-      <c r="B312">
+      <c r="B313">
         <f t="shared" si="4"/>
         <v>-0.91354545764260076</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
         <v>156.5</v>
       </c>
-      <c r="B313">
+      <c r="B314">
         <f t="shared" si="4"/>
         <v>-0.91706007438512405</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
         <v>157</v>
       </c>
-      <c r="B314">
+      <c r="B315">
         <f t="shared" si="4"/>
         <v>-0.92050485345244037</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
         <v>157.5</v>
       </c>
-      <c r="B315">
+      <c r="B316">
         <f t="shared" si="4"/>
         <v>-0.92387953251128674</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
         <v>158</v>
       </c>
-      <c r="B316">
+      <c r="B317">
         <f t="shared" si="4"/>
         <v>-0.92718385456678731</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
         <v>158.5</v>
       </c>
-      <c r="B317">
+      <c r="B318">
         <f t="shared" si="4"/>
         <v>-0.93041756798202457</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
         <v>159</v>
       </c>
-      <c r="B318">
+      <c r="B319">
         <f t="shared" si="4"/>
         <v>-0.93358042649720174</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
         <v>159.5</v>
       </c>
-      <c r="B319">
+      <c r="B320">
         <f t="shared" si="4"/>
         <v>-0.93667218924839757</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
         <v>160</v>
       </c>
-      <c r="B320">
+      <c r="B321">
         <f t="shared" si="4"/>
         <v>-0.93969262078590832</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322">
         <v>160.5</v>
       </c>
-      <c r="B321">
+      <c r="B322">
         <f t="shared" si="4"/>
         <v>-0.94264149109217832</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>161</v>
-      </c>
-      <c r="B322">
-        <f t="shared" ref="B322:B385" si="5">COS(RADIANS(A322))</f>
-        <v>-0.94551857559931685</v>
-      </c>
-    </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
+        <v>161</v>
+      </c>
+      <c r="B323">
+        <f t="shared" ref="B323:B386" si="5">COS(RADIANS(A323))</f>
+        <v>-0.94551857559931685</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324">
         <v>161.5</v>
       </c>
-      <c r="B323">
+      <c r="B324">
         <f t="shared" si="5"/>
         <v>-0.94832365520619932</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325">
         <v>162</v>
       </c>
-      <c r="B324">
+      <c r="B325">
         <f t="shared" si="5"/>
         <v>-0.95105651629515353</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326">
         <v>162.5</v>
       </c>
-      <c r="B325">
+      <c r="B326">
         <f t="shared" si="5"/>
         <v>-0.95371695074822682</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327">
         <v>163</v>
       </c>
-      <c r="B326">
+      <c r="B327">
         <f t="shared" si="5"/>
         <v>-0.95630475596303555</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328">
         <v>163.5</v>
       </c>
-      <c r="B327">
+      <c r="B328">
         <f t="shared" si="5"/>
         <v>-0.95881973486819305</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329">
         <v>164</v>
       </c>
-      <c r="B328">
+      <c r="B329">
         <f t="shared" si="5"/>
         <v>-0.96126169593831889</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330">
         <v>164.5</v>
       </c>
-      <c r="B329">
+      <c r="B330">
         <f t="shared" si="5"/>
         <v>-0.96363045320862295</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331">
         <v>165</v>
       </c>
-      <c r="B330">
+      <c r="B331">
         <f t="shared" si="5"/>
         <v>-0.9659258262890682</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332">
         <v>165.5</v>
       </c>
-      <c r="B331">
+      <c r="B332">
         <f t="shared" si="5"/>
         <v>-0.96814764037810774</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333">
         <v>166</v>
       </c>
-      <c r="B332">
+      <c r="B333">
         <f t="shared" si="5"/>
         <v>-0.97029572627599647</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334">
         <v>166.5</v>
       </c>
-      <c r="B333">
+      <c r="B334">
         <f t="shared" si="5"/>
         <v>-0.97236992039767656</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335">
         <v>167</v>
       </c>
-      <c r="B334">
+      <c r="B335">
         <f t="shared" si="5"/>
         <v>-0.97437006478523513</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336">
         <v>167.5</v>
       </c>
-      <c r="B335">
+      <c r="B336">
         <f t="shared" si="5"/>
         <v>-0.97629600711993336</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337">
         <v>168</v>
       </c>
-      <c r="B336">
+      <c r="B337">
         <f t="shared" si="5"/>
         <v>-0.97814760073380569</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
         <v>168.5</v>
       </c>
-      <c r="B337">
+      <c r="B338">
         <f t="shared" si="5"/>
         <v>-0.97992470462082959</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339">
         <v>169</v>
       </c>
-      <c r="B338">
+      <c r="B339">
         <f t="shared" si="5"/>
         <v>-0.98162718344766398</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340">
         <v>169.5</v>
       </c>
-      <c r="B339">
+      <c r="B340">
         <f t="shared" si="5"/>
         <v>-0.98325490756395451</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341">
         <v>170</v>
       </c>
-      <c r="B340">
+      <c r="B341">
         <f t="shared" si="5"/>
         <v>-0.98480775301220802</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342">
         <v>170.5</v>
       </c>
-      <c r="B341">
+      <c r="B342">
         <f t="shared" si="5"/>
         <v>-0.98628560153723144</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343">
         <v>171</v>
       </c>
-      <c r="B342">
+      <c r="B343">
         <f t="shared" si="5"/>
         <v>-0.98768834059513766</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344">
         <v>171.5</v>
       </c>
-      <c r="B343">
+      <c r="B344">
         <f t="shared" si="5"/>
         <v>-0.98901586336191682</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345">
         <v>172</v>
       </c>
-      <c r="B344">
+      <c r="B345">
         <f t="shared" si="5"/>
         <v>-0.99026806874157036</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346">
         <v>172.5</v>
       </c>
-      <c r="B345">
+      <c r="B346">
         <f t="shared" si="5"/>
         <v>-0.99144486137381038</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347">
         <v>173</v>
       </c>
-      <c r="B346">
+      <c r="B347">
         <f t="shared" si="5"/>
         <v>-0.99254615164132198</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348">
         <v>173.5</v>
       </c>
-      <c r="B347">
+      <c r="B348">
         <f t="shared" si="5"/>
         <v>-0.99357185567658746</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349">
         <v>174</v>
       </c>
-      <c r="B348">
+      <c r="B349">
         <f t="shared" si="5"/>
         <v>-0.99452189536827329</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350">
         <v>174.5</v>
       </c>
-      <c r="B349">
+      <c r="B350">
         <f t="shared" si="5"/>
         <v>-0.99539619836717885</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351">
         <v>175</v>
       </c>
-      <c r="B350">
+      <c r="B351">
         <f t="shared" si="5"/>
         <v>-0.99619469809174555</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352">
         <v>175.5</v>
       </c>
-      <c r="B351">
+      <c r="B352">
         <f t="shared" si="5"/>
         <v>-0.99691733373312796</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353">
         <v>176</v>
       </c>
-      <c r="B352">
+      <c r="B353">
         <f t="shared" si="5"/>
         <v>-0.9975640502598242</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
         <v>176.5</v>
       </c>
-      <c r="B353">
+      <c r="B354">
         <f t="shared" si="5"/>
         <v>-0.99813479842186703</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355">
         <v>177</v>
       </c>
-      <c r="B354">
+      <c r="B355">
         <f t="shared" si="5"/>
         <v>-0.99862953475457383</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356">
         <v>177.5</v>
       </c>
-      <c r="B355">
+      <c r="B356">
         <f t="shared" si="5"/>
         <v>-0.9990482215818578</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357">
         <v>178</v>
       </c>
-      <c r="B356">
+      <c r="B357">
         <f t="shared" si="5"/>
         <v>-0.99939082701909576</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358">
         <v>178.5</v>
       </c>
-      <c r="B357">
+      <c r="B358">
         <f t="shared" si="5"/>
         <v>-0.99965732497555726</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359">
         <v>179</v>
       </c>
-      <c r="B358">
+      <c r="B359">
         <f t="shared" si="5"/>
         <v>-0.99984769515639127</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360">
         <v>179.5</v>
       </c>
-      <c r="B359">
+      <c r="B360">
         <f t="shared" si="5"/>
         <v>-0.99996192306417131</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361">
         <v>180</v>
       </c>
-      <c r="B360">
+      <c r="B361">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362">
         <v>180.5</v>
       </c>
-      <c r="B361">
+      <c r="B362">
         <f t="shared" si="5"/>
         <v>-0.99996192306417131</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363">
         <v>181</v>
       </c>
-      <c r="B362">
+      <c r="B363">
         <f t="shared" si="5"/>
         <v>-0.99984769515639127</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364">
         <v>181.5</v>
       </c>
-      <c r="B363">
+      <c r="B364">
         <f t="shared" si="5"/>
         <v>-0.99965732497555726</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365">
         <v>182</v>
       </c>
-      <c r="B364">
+      <c r="B365">
         <f t="shared" si="5"/>
         <v>-0.99939082701909576</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366">
         <v>182.5</v>
       </c>
-      <c r="B365">
+      <c r="B366">
         <f t="shared" si="5"/>
         <v>-0.9990482215818578</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367">
         <v>183</v>
       </c>
-      <c r="B366">
+      <c r="B367">
         <f t="shared" si="5"/>
         <v>-0.99862953475457383</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368">
         <v>183.5</v>
       </c>
-      <c r="B367">
+      <c r="B368">
         <f t="shared" si="5"/>
         <v>-0.99813479842186692</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369">
         <v>184</v>
       </c>
-      <c r="B368">
+      <c r="B369">
         <f t="shared" si="5"/>
         <v>-0.9975640502598242</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370">
         <v>184.5</v>
       </c>
-      <c r="B369">
+      <c r="B370">
         <f t="shared" si="5"/>
         <v>-0.99691733373312796</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371">
         <v>185</v>
       </c>
-      <c r="B370">
+      <c r="B371">
         <f t="shared" si="5"/>
         <v>-0.99619469809174555</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372">
         <v>185.5</v>
       </c>
-      <c r="B371">
+      <c r="B372">
         <f t="shared" si="5"/>
         <v>-0.99539619836717874</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373">
         <v>186</v>
       </c>
-      <c r="B372">
+      <c r="B373">
         <f t="shared" si="5"/>
         <v>-0.99452189536827329</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374">
         <v>186.5</v>
       </c>
-      <c r="B373">
+      <c r="B374">
         <f t="shared" si="5"/>
         <v>-0.99357185567658746</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375">
         <v>187</v>
       </c>
-      <c r="B374">
+      <c r="B375">
         <f t="shared" si="5"/>
         <v>-0.99254615164132209</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376">
         <v>187.5</v>
       </c>
-      <c r="B375">
+      <c r="B376">
         <f t="shared" si="5"/>
         <v>-0.99144486137381049</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377">
         <v>188</v>
       </c>
-      <c r="B376">
+      <c r="B377">
         <f t="shared" si="5"/>
         <v>-0.99026806874157025</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378">
         <v>188.5</v>
       </c>
-      <c r="B377">
+      <c r="B378">
         <f t="shared" si="5"/>
         <v>-0.98901586336191682</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379">
         <v>189</v>
       </c>
-      <c r="B378">
+      <c r="B379">
         <f t="shared" si="5"/>
         <v>-0.98768834059513777</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380">
         <v>189.5</v>
       </c>
-      <c r="B379">
+      <c r="B380">
         <f t="shared" si="5"/>
         <v>-0.98628560153723144</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381">
         <v>190</v>
       </c>
-      <c r="B380">
+      <c r="B381">
         <f t="shared" si="5"/>
         <v>-0.98480775301220802</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382">
         <v>190.5</v>
       </c>
-      <c r="B381">
+      <c r="B382">
         <f t="shared" si="5"/>
         <v>-0.98325490756395462</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383">
         <v>191</v>
       </c>
-      <c r="B382">
+      <c r="B383">
         <f t="shared" si="5"/>
         <v>-0.98162718344766398</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384">
         <v>191.5</v>
       </c>
-      <c r="B383">
+      <c r="B384">
         <f t="shared" si="5"/>
         <v>-0.9799247046208297</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385">
         <v>192</v>
       </c>
-      <c r="B384">
+      <c r="B385">
         <f t="shared" si="5"/>
         <v>-0.97814760073380558</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386">
         <v>192.5</v>
       </c>
-      <c r="B385">
+      <c r="B386">
         <f t="shared" si="5"/>
         <v>-0.97629600711993336</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386">
-        <v>193</v>
-      </c>
-      <c r="B386">
-        <f t="shared" ref="B386:B449" si="6">COS(RADIANS(A386))</f>
-        <v>-0.97437006478523525</v>
-      </c>
-    </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
+        <v>193</v>
+      </c>
+      <c r="B387">
+        <f t="shared" ref="B387:B450" si="6">COS(RADIANS(A387))</f>
+        <v>-0.97437006478523525</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388">
         <v>193.5</v>
       </c>
-      <c r="B387">
+      <c r="B388">
         <f t="shared" si="6"/>
         <v>-0.97236992039767667</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389">
         <v>194</v>
       </c>
-      <c r="B388">
+      <c r="B389">
         <f t="shared" si="6"/>
         <v>-0.97029572627599647</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390">
         <v>194.5</v>
       </c>
-      <c r="B389">
+      <c r="B390">
         <f t="shared" si="6"/>
         <v>-0.96814764037810774</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391">
         <v>195</v>
       </c>
-      <c r="B390">
+      <c r="B391">
         <f t="shared" si="6"/>
         <v>-0.96592582628906831</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392">
         <v>195.5</v>
       </c>
-      <c r="B391">
+      <c r="B392">
         <f t="shared" si="6"/>
         <v>-0.96363045320862306</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393">
         <v>196</v>
       </c>
-      <c r="B392">
+      <c r="B393">
         <f t="shared" si="6"/>
         <v>-0.96126169593831889</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394">
         <v>196.5</v>
       </c>
-      <c r="B393">
+      <c r="B394">
         <f t="shared" si="6"/>
         <v>-0.95881973486819305</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395">
         <v>197</v>
       </c>
-      <c r="B394">
+      <c r="B395">
         <f t="shared" si="6"/>
         <v>-0.95630475596303544</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396">
         <v>197.5</v>
       </c>
-      <c r="B395">
+      <c r="B396">
         <f t="shared" si="6"/>
         <v>-0.95371695074822693</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397">
         <v>198</v>
       </c>
-      <c r="B396">
+      <c r="B397">
         <f t="shared" si="6"/>
         <v>-0.95105651629515364</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398">
         <v>198.5</v>
       </c>
-      <c r="B397">
+      <c r="B398">
         <f t="shared" si="6"/>
         <v>-0.94832365520619943</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399">
         <v>199</v>
       </c>
-      <c r="B398">
+      <c r="B399">
         <f t="shared" si="6"/>
         <v>-0.94551857559931674</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400">
         <v>199.5</v>
       </c>
-      <c r="B399">
+      <c r="B400">
         <f t="shared" si="6"/>
         <v>-0.94264149109217843</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401">
         <v>200</v>
       </c>
-      <c r="B400">
+      <c r="B401">
         <f t="shared" si="6"/>
         <v>-0.93969262078590843</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402">
         <v>200.5</v>
       </c>
-      <c r="B401">
+      <c r="B402">
         <f t="shared" si="6"/>
         <v>-0.93667218924839768</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403">
         <v>201</v>
       </c>
-      <c r="B402">
+      <c r="B403">
         <f t="shared" si="6"/>
         <v>-0.93358042649720174</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404">
         <v>201.5</v>
       </c>
-      <c r="B403">
+      <c r="B404">
         <f t="shared" si="6"/>
         <v>-0.93041756798202446</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405">
         <v>202</v>
       </c>
-      <c r="B404">
+      <c r="B405">
         <f t="shared" si="6"/>
         <v>-0.92718385456678742</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406">
         <v>202.5</v>
       </c>
-      <c r="B405">
+      <c r="B406">
         <f t="shared" si="6"/>
         <v>-0.92387953251128685</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407">
         <v>203</v>
       </c>
-      <c r="B406">
+      <c r="B407">
         <f t="shared" si="6"/>
         <v>-0.92050485345244037</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408">
         <v>203.5</v>
       </c>
-      <c r="B407">
+      <c r="B408">
         <f t="shared" si="6"/>
         <v>-0.91706007438512405</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409">
         <v>204</v>
       </c>
-      <c r="B408">
+      <c r="B409">
         <f t="shared" si="6"/>
         <v>-0.91354545764260087</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410">
         <v>204.5</v>
       </c>
-      <c r="B409">
+      <c r="B410">
         <f t="shared" si="6"/>
         <v>-0.90996127087654322</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411">
         <v>205</v>
       </c>
-      <c r="B410">
+      <c r="B411">
         <f t="shared" si="6"/>
         <v>-0.90630778703665005</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412">
         <v>205.5</v>
       </c>
-      <c r="B411">
+      <c r="B412">
         <f t="shared" si="6"/>
         <v>-0.90258528434986052</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413">
         <v>206</v>
       </c>
-      <c r="B412">
+      <c r="B413">
         <f t="shared" si="6"/>
         <v>-0.89879404629916693</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414">
         <v>206.5</v>
       </c>
-      <c r="B413">
+      <c r="B414">
         <f t="shared" si="6"/>
         <v>-0.89493436160202511</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415">
         <v>207</v>
       </c>
-      <c r="B414">
+      <c r="B415">
         <f t="shared" si="6"/>
         <v>-0.8910065241883679</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416">
         <v>207.5</v>
       </c>
-      <c r="B415">
+      <c r="B416">
         <f t="shared" si="6"/>
         <v>-0.88701083317822182</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417">
         <v>208</v>
       </c>
-      <c r="B416">
+      <c r="B417">
         <f t="shared" si="6"/>
         <v>-0.88294759285892688</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418">
         <v>208.5</v>
       </c>
-      <c r="B417">
+      <c r="B418">
         <f t="shared" si="6"/>
         <v>-0.87881711266196538</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419">
         <v>209</v>
       </c>
-      <c r="B418">
+      <c r="B419">
         <f t="shared" si="6"/>
         <v>-0.87461970713939585</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420">
         <v>209.5</v>
       </c>
-      <c r="B419">
+      <c r="B420">
         <f t="shared" si="6"/>
         <v>-0.87035569593989981</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421">
         <v>210</v>
       </c>
-      <c r="B420">
+      <c r="B421">
         <f t="shared" si="6"/>
         <v>-0.8660254037844386</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422">
         <v>210.5</v>
       </c>
-      <c r="B421">
+      <c r="B422">
         <f t="shared" si="6"/>
         <v>-0.86162916044152571</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423">
         <v>211</v>
       </c>
-      <c r="B422">
+      <c r="B423">
         <f t="shared" si="6"/>
         <v>-0.85716730070211233</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424">
         <v>211.5</v>
       </c>
-      <c r="B423">
+      <c r="B424">
         <f t="shared" si="6"/>
         <v>-0.85264016435409229</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425">
         <v>212</v>
       </c>
-      <c r="B424">
+      <c r="B425">
         <f t="shared" si="6"/>
         <v>-0.84804809615642607</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426">
         <v>212.5</v>
       </c>
-      <c r="B425">
+      <c r="B426">
         <f t="shared" si="6"/>
         <v>-0.84339144581288561</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427">
         <v>213</v>
       </c>
-      <c r="B426">
+      <c r="B427">
         <f t="shared" si="6"/>
         <v>-0.83867056794542405</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428">
         <v>213.5</v>
       </c>
-      <c r="B427">
+      <c r="B428">
         <f t="shared" si="6"/>
         <v>-0.83388582206716821</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429">
         <v>214</v>
       </c>
-      <c r="B428">
+      <c r="B429">
         <f t="shared" si="6"/>
         <v>-0.82903757255504185</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430">
         <v>214.5</v>
       </c>
-      <c r="B429">
+      <c r="B430">
         <f t="shared" si="6"/>
         <v>-0.82412618862201559</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431">
         <v>215</v>
       </c>
-      <c r="B430">
+      <c r="B431">
         <f t="shared" si="6"/>
         <v>-0.8191520442889918</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432">
         <v>215.5</v>
       </c>
-      <c r="B431">
+      <c r="B432">
         <f t="shared" si="6"/>
         <v>-0.81411551835631923</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433">
         <v>216</v>
       </c>
-      <c r="B432">
+      <c r="B433">
         <f t="shared" si="6"/>
         <v>-0.80901699437494756</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434">
         <v>216.5</v>
       </c>
-      <c r="B433">
+      <c r="B434">
         <f t="shared" si="6"/>
         <v>-0.80385686061721751</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435">
         <v>217</v>
       </c>
-      <c r="B434">
+      <c r="B435">
         <f t="shared" si="6"/>
         <v>-0.79863551004729283</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436">
         <v>217.5</v>
       </c>
-      <c r="B435">
+      <c r="B436">
         <f t="shared" si="6"/>
         <v>-0.79335334029123517</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437">
         <v>218</v>
       </c>
-      <c r="B436">
+      <c r="B437">
         <f t="shared" si="6"/>
         <v>-0.78801075360672201</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438">
         <v>218.5</v>
       </c>
-      <c r="B437">
+      <c r="B438">
         <f t="shared" si="6"/>
         <v>-0.78260815685241403</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439">
         <v>219</v>
       </c>
-      <c r="B438">
+      <c r="B439">
         <f t="shared" si="6"/>
         <v>-0.77714596145697079</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440">
         <v>219.5</v>
       </c>
-      <c r="B439">
+      <c r="B440">
         <f t="shared" si="6"/>
         <v>-0.77162458338771989</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441">
         <v>220</v>
       </c>
-      <c r="B440">
+      <c r="B441">
         <f t="shared" si="6"/>
         <v>-0.76604444311897801</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442">
         <v>220.5</v>
       </c>
-      <c r="B441">
+      <c r="B442">
         <f t="shared" si="6"/>
         <v>-0.76040596560003104</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443">
         <v>221</v>
       </c>
-      <c r="B442">
+      <c r="B443">
         <f t="shared" si="6"/>
         <v>-0.75470958022277213</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444">
         <v>221.5</v>
       </c>
-      <c r="B443">
+      <c r="B444">
         <f t="shared" si="6"/>
         <v>-0.74895572078900208</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445">
         <v>222</v>
       </c>
-      <c r="B444">
+      <c r="B445">
         <f t="shared" si="6"/>
         <v>-0.74314482547739424</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446">
         <v>222.5</v>
       </c>
-      <c r="B445">
+      <c r="B446">
         <f t="shared" si="6"/>
         <v>-0.73727733681012408</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447">
         <v>223</v>
       </c>
-      <c r="B446">
+      <c r="B447">
         <f t="shared" si="6"/>
         <v>-0.73135370161917057</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448">
         <v>223.5</v>
       </c>
-      <c r="B447">
+      <c r="B448">
         <f t="shared" si="6"/>
         <v>-0.72537437101228752</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449">
         <v>224</v>
       </c>
-      <c r="B448">
+      <c r="B449">
         <f t="shared" si="6"/>
         <v>-0.71933980033865108</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450">
         <v>224.5</v>
       </c>
-      <c r="B449">
+      <c r="B450">
         <f t="shared" si="6"/>
         <v>-0.71325044915418156</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450">
-        <v>225</v>
-      </c>
-      <c r="B450">
-        <f t="shared" ref="B450:B513" si="7">COS(RADIANS(A450))</f>
-        <v>-0.70710678118654768</v>
-      </c>
-    </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451">
+        <v>225</v>
+      </c>
+      <c r="B451">
+        <f t="shared" ref="B451:B514" si="7">COS(RADIANS(A451))</f>
+        <v>-0.70710678118654768</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452">
         <v>225.5</v>
       </c>
-      <c r="B451">
+      <c r="B452">
         <f t="shared" si="7"/>
         <v>-0.70090926429985112</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453">
         <v>226</v>
       </c>
-      <c r="B452">
+      <c r="B453">
         <f t="shared" si="7"/>
         <v>-0.69465837045899725</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454">
         <v>226.5</v>
       </c>
-      <c r="B453">
+      <c r="B454">
         <f t="shared" si="7"/>
         <v>-0.68835457569375402</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455">
         <v>227</v>
       </c>
-      <c r="B454">
+      <c r="B455">
         <f t="shared" si="7"/>
         <v>-0.68199836006249859</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456">
         <v>227.5</v>
       </c>
-      <c r="B455">
+      <c r="B456">
         <f t="shared" si="7"/>
         <v>-0.67559020761566035</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457">
         <v>228</v>
       </c>
-      <c r="B456">
+      <c r="B457">
         <f t="shared" si="7"/>
         <v>-0.66913060635885813</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458">
         <v>228.5</v>
       </c>
-      <c r="B457">
+      <c r="B458">
         <f t="shared" si="7"/>
         <v>-0.6626200482157375</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459">
         <v>229</v>
       </c>
-      <c r="B458">
+      <c r="B459">
         <f t="shared" si="7"/>
         <v>-0.65605902899050728</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460">
         <v>229.5</v>
       </c>
-      <c r="B459">
+      <c r="B460">
         <f t="shared" si="7"/>
         <v>-0.64944804833018344</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461">
         <v>230</v>
       </c>
-      <c r="B460">
+      <c r="B461">
         <f t="shared" si="7"/>
         <v>-0.64278760968653947</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462">
         <v>230.5</v>
       </c>
-      <c r="B461">
+      <c r="B462">
         <f t="shared" si="7"/>
         <v>-0.63607822027776384</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463">
         <v>231</v>
       </c>
-      <c r="B462">
+      <c r="B463">
         <f t="shared" si="7"/>
         <v>-0.62932039104983784</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464">
         <v>231.5</v>
       </c>
-      <c r="B463">
+      <c r="B464">
         <f t="shared" si="7"/>
         <v>-0.62251463663761963</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465">
         <v>232</v>
       </c>
-      <c r="B464">
+      <c r="B465">
         <f t="shared" si="7"/>
         <v>-0.61566147532565807</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466">
         <v>232.5</v>
       </c>
-      <c r="B465">
+      <c r="B466">
         <f t="shared" si="7"/>
         <v>-0.60876142900872088</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467">
         <v>233</v>
       </c>
-      <c r="B466">
+      <c r="B467">
         <f t="shared" si="7"/>
         <v>-0.60181502315204827</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468">
         <v>233.5</v>
       </c>
-      <c r="B467">
+      <c r="B468">
         <f t="shared" si="7"/>
         <v>-0.5948227867513417</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469">
         <v>234</v>
       </c>
-      <c r="B468">
+      <c r="B469">
         <f t="shared" si="7"/>
         <v>-0.58778525229247325</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470">
         <v>234.5</v>
       </c>
-      <c r="B469">
+      <c r="B470">
         <f t="shared" si="7"/>
         <v>-0.58070295571093966</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471">
         <v>235</v>
       </c>
-      <c r="B470">
+      <c r="B471">
         <f t="shared" si="7"/>
         <v>-0.57357643635104638</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472">
         <v>235.5</v>
       </c>
-      <c r="B471">
+      <c r="B472">
         <f t="shared" si="7"/>
         <v>-0.56640623692483283</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473">
         <v>236</v>
       </c>
-      <c r="B472">
+      <c r="B473">
         <f t="shared" si="7"/>
         <v>-0.55919290347074657</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474">
         <v>236.5</v>
       </c>
-      <c r="B473">
+      <c r="B474">
         <f t="shared" si="7"/>
         <v>-0.55193698531205837</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475">
         <v>237</v>
       </c>
-      <c r="B474">
+      <c r="B475">
         <f t="shared" si="7"/>
         <v>-0.54463903501502697</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476">
         <v>237.5</v>
       </c>
-      <c r="B475">
+      <c r="B476">
         <f t="shared" si="7"/>
         <v>-0.53729960834682422</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477">
         <v>238</v>
       </c>
-      <c r="B476">
+      <c r="B477">
         <f t="shared" si="7"/>
         <v>-0.52991926423320501</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478">
         <v>238.5</v>
       </c>
-      <c r="B477">
+      <c r="B478">
         <f t="shared" si="7"/>
         <v>-0.52249856471594858</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479">
         <v>239</v>
       </c>
-      <c r="B478">
+      <c r="B479">
         <f t="shared" si="7"/>
         <v>-0.51503807491005449</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480">
         <v>239.5</v>
       </c>
-      <c r="B479">
+      <c r="B480">
         <f t="shared" si="7"/>
         <v>-0.50753836296070409</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481">
         <v>240</v>
       </c>
-      <c r="B480">
+      <c r="B481">
         <f t="shared" si="7"/>
         <v>-0.50000000000000044</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482">
         <v>240.5</v>
       </c>
-      <c r="B481">
+      <c r="B482">
         <f t="shared" si="7"/>
         <v>-0.49242356010346722</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483">
         <v>241</v>
       </c>
-      <c r="B482">
+      <c r="B483">
         <f t="shared" si="7"/>
         <v>-0.48480962024633684</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484">
         <v>241.5</v>
       </c>
-      <c r="B483">
+      <c r="B484">
         <f t="shared" si="7"/>
         <v>-0.47715876025960868</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485">
         <v>242</v>
       </c>
-      <c r="B484">
+      <c r="B485">
         <f t="shared" si="7"/>
         <v>-0.46947156278589075</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486">
         <v>242.5</v>
       </c>
-      <c r="B485">
+      <c r="B486">
         <f t="shared" si="7"/>
         <v>-0.46174861323503441</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487">
         <v>243</v>
       </c>
-      <c r="B486">
+      <c r="B487">
         <f t="shared" si="7"/>
         <v>-0.45399049973954692</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488">
         <v>243.5</v>
       </c>
-      <c r="B487">
+      <c r="B488">
         <f t="shared" si="7"/>
         <v>-0.44619781310980866</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489">
         <v>244</v>
       </c>
-      <c r="B488">
+      <c r="B489">
         <f t="shared" si="7"/>
         <v>-0.43837114678907774</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490">
         <v>244.5</v>
       </c>
-      <c r="B489">
+      <c r="B490">
         <f t="shared" si="7"/>
         <v>-0.43051109680829514</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491">
         <v>245</v>
       </c>
-      <c r="B490">
+      <c r="B491">
         <f t="shared" si="7"/>
         <v>-0.42261826174069916</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492">
         <v>245.5</v>
       </c>
-      <c r="B491">
+      <c r="B492">
         <f t="shared" si="7"/>
         <v>-0.41469324265623925</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493">
         <v>246</v>
       </c>
-      <c r="B492">
+      <c r="B493">
         <f t="shared" si="7"/>
         <v>-0.4067366430758001</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494">
         <v>246.5</v>
       </c>
-      <c r="B493">
+      <c r="B494">
         <f t="shared" si="7"/>
         <v>-0.39874906892524659</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495">
         <v>247</v>
       </c>
-      <c r="B494">
+      <c r="B495">
         <f t="shared" si="7"/>
         <v>-0.39073112848927383</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496">
         <v>247.5</v>
       </c>
-      <c r="B495">
+      <c r="B496">
         <f t="shared" si="7"/>
         <v>-0.3826834323650895</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497">
         <v>248</v>
       </c>
-      <c r="B496">
+      <c r="B497">
         <f t="shared" si="7"/>
         <v>-0.37460659341591229</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498">
         <v>248.5</v>
       </c>
-      <c r="B497">
+      <c r="B498">
         <f t="shared" si="7"/>
         <v>-0.36650122672429719</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499">
         <v>249</v>
       </c>
-      <c r="B498">
+      <c r="B499">
         <f t="shared" si="7"/>
         <v>-0.35836794954530071</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500">
         <v>249.5</v>
       </c>
-      <c r="B499">
+      <c r="B500">
         <f t="shared" si="7"/>
         <v>-0.3502073812594676</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501">
         <v>250</v>
       </c>
-      <c r="B500">
+      <c r="B501">
         <f t="shared" si="7"/>
         <v>-0.34202014332566855</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502">
         <v>250.5</v>
       </c>
-      <c r="B501">
+      <c r="B502">
         <f t="shared" si="7"/>
         <v>-0.33380685923377124</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503">
         <v>251</v>
       </c>
-      <c r="B502">
+      <c r="B503">
         <f t="shared" si="7"/>
         <v>-0.32556815445715664</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504">
         <v>251.5</v>
       </c>
-      <c r="B503">
+      <c r="B504">
         <f t="shared" si="7"/>
         <v>-0.31730465640509264</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505">
         <v>252</v>
       </c>
-      <c r="B504">
+      <c r="B505">
         <f t="shared" si="7"/>
         <v>-0.30901699437494756</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506">
         <v>252.5</v>
       </c>
-      <c r="B505">
+      <c r="B506">
         <f t="shared" si="7"/>
         <v>-0.30070579950427295</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507">
         <v>253</v>
       </c>
-      <c r="B506">
+      <c r="B507">
         <f t="shared" si="7"/>
         <v>-0.2923717047227371</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508">
         <v>253.5</v>
       </c>
-      <c r="B507">
+      <c r="B508">
         <f t="shared" si="7"/>
         <v>-0.28401534470392265</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509">
         <v>254</v>
       </c>
-      <c r="B508">
+      <c r="B509">
         <f t="shared" si="7"/>
         <v>-0.27563735581699889</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510">
         <v>254.5</v>
       </c>
-      <c r="B509">
+      <c r="B510">
         <f t="shared" si="7"/>
         <v>-0.26723837607825707</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511">
         <v>255</v>
       </c>
-      <c r="B510">
+      <c r="B511">
         <f t="shared" si="7"/>
         <v>-0.25881904510252063</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512">
         <v>255.5</v>
       </c>
-      <c r="B511">
+      <c r="B512">
         <f t="shared" si="7"/>
         <v>-0.25038000405444183</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513">
         <v>256</v>
       </c>
-      <c r="B512">
+      <c r="B513">
         <f t="shared" si="7"/>
         <v>-0.24192189559966779</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514">
         <v>256.5</v>
       </c>
-      <c r="B513">
+      <c r="B514">
         <f t="shared" si="7"/>
         <v>-0.23344536385590514</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514">
-        <v>257</v>
-      </c>
-      <c r="B514">
-        <f t="shared" ref="B514:B577" si="8">COS(RADIANS(A514))</f>
-        <v>-0.22495105434386525</v>
-      </c>
-    </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515">
+        <v>257</v>
+      </c>
+      <c r="B515">
+        <f t="shared" ref="B515:B578" si="8">COS(RADIANS(A515))</f>
+        <v>-0.22495105434386525</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516">
         <v>257.5</v>
       </c>
-      <c r="B515">
+      <c r="B516">
         <f t="shared" si="8"/>
         <v>-0.21643961393810282</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517">
         <v>258</v>
       </c>
-      <c r="B516">
+      <c r="B517">
         <f t="shared" si="8"/>
         <v>-0.20791169081775979</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518">
         <v>258.5</v>
       </c>
-      <c r="B517">
+      <c r="B518">
         <f t="shared" si="8"/>
         <v>-0.1993679344171973</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519">
         <v>259</v>
       </c>
-      <c r="B518">
+      <c r="B519">
         <f t="shared" si="8"/>
         <v>-0.19080899537654461</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520">
         <v>259.5</v>
       </c>
-      <c r="B519">
+      <c r="B520">
         <f t="shared" si="8"/>
         <v>-0.18223552549214778</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521">
         <v>260</v>
       </c>
-      <c r="B520">
+      <c r="B521">
         <f t="shared" si="8"/>
         <v>-0.17364817766693033</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522">
         <v>260.5</v>
       </c>
-      <c r="B521">
+      <c r="B522">
         <f t="shared" si="8"/>
         <v>-0.16504760586067729</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523">
         <v>261</v>
       </c>
-      <c r="B522">
+      <c r="B523">
         <f t="shared" si="8"/>
         <v>-0.15643446504023104</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524">
         <v>261.5</v>
       </c>
-      <c r="B523">
+      <c r="B524">
         <f t="shared" si="8"/>
         <v>-0.14780941112961046</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525">
         <v>262</v>
       </c>
-      <c r="B524">
+      <c r="B525">
         <f t="shared" si="8"/>
         <v>-0.13917310096006583</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526">
         <v>262.5</v>
       </c>
-      <c r="B525">
+      <c r="B526">
         <f t="shared" si="8"/>
         <v>-0.13052619222005163</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527">
         <v>263</v>
       </c>
-      <c r="B526">
+      <c r="B527">
         <f t="shared" si="8"/>
         <v>-0.12186934340514717</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528">
         <v>263.5</v>
       </c>
-      <c r="B527">
+      <c r="B528">
         <f t="shared" si="8"/>
         <v>-0.11320321376790694</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529">
         <v>264</v>
       </c>
-      <c r="B528">
+      <c r="B529">
         <f t="shared" si="8"/>
         <v>-0.10452846326765336</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530">
         <v>264.5</v>
       </c>
-      <c r="B529">
+      <c r="B530">
         <f t="shared" si="8"/>
         <v>-9.5845752520224411E-2</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531">
         <v>265</v>
       </c>
-      <c r="B530">
+      <c r="B531">
         <f t="shared" si="8"/>
         <v>-8.7155742747658249E-2</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532">
         <v>265.5</v>
       </c>
-      <c r="B531">
+      <c r="B532">
         <f t="shared" si="8"/>
         <v>-7.845909572784468E-2</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533">
         <v>266</v>
       </c>
-      <c r="B532">
+      <c r="B533">
         <f t="shared" si="8"/>
         <v>-6.975647374412558E-2</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534">
         <v>266.5</v>
       </c>
-      <c r="B533">
+      <c r="B534">
         <f t="shared" si="8"/>
         <v>-6.1048539534856804E-2</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535">
         <v>267</v>
       </c>
-      <c r="B534">
+      <c r="B535">
         <f t="shared" si="8"/>
         <v>-5.2335956242944306E-2</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536">
         <v>267.5</v>
       </c>
-      <c r="B535">
+      <c r="B536">
         <f t="shared" si="8"/>
         <v>-4.3619387365336132E-2</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537">
         <v>268</v>
       </c>
-      <c r="B536">
+      <c r="B537">
         <f t="shared" si="8"/>
         <v>-3.4899496702500761E-2</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538">
         <v>268.5</v>
       </c>
-      <c r="B537">
+      <c r="B538">
         <f t="shared" si="8"/>
         <v>-2.6176948307873482E-2</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539">
         <v>269</v>
       </c>
-      <c r="B538">
+      <c r="B539">
         <f t="shared" si="8"/>
         <v>-1.7452406437283498E-2</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540">
         <v>269.5</v>
       </c>
-      <c r="B539">
+      <c r="B540">
         <f t="shared" si="8"/>
         <v>-8.7265354983735756E-3</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541">
         <v>270</v>
       </c>
-      <c r="B540">
+      <c r="B541">
         <f t="shared" si="8"/>
         <v>-1.83772268236293E-16</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542">
         <v>270.5</v>
       </c>
-      <c r="B541">
+      <c r="B542">
         <f t="shared" si="8"/>
         <v>8.726535498374096E-3</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543">
         <v>271</v>
       </c>
-      <c r="B542">
+      <c r="B543">
         <f t="shared" si="8"/>
         <v>1.745240643728313E-2</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544">
         <v>271.5</v>
       </c>
-      <c r="B543">
+      <c r="B544">
         <f t="shared" si="8"/>
         <v>2.6176948307873114E-2</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545">
         <v>272</v>
       </c>
-      <c r="B544">
+      <c r="B545">
         <f t="shared" si="8"/>
         <v>3.4899496702501281E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546">
         <v>272.5</v>
       </c>
-      <c r="B545">
+      <c r="B546">
         <f t="shared" si="8"/>
         <v>4.3619387365335764E-2</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547">
         <v>273</v>
       </c>
-      <c r="B546">
+      <c r="B547">
         <f t="shared" si="8"/>
         <v>5.2335956242943946E-2</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548">
         <v>273.5</v>
       </c>
-      <c r="B547">
+      <c r="B548">
         <f t="shared" si="8"/>
         <v>6.1048539534856443E-2</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549">
         <v>274</v>
       </c>
-      <c r="B548">
+      <c r="B549">
         <f t="shared" si="8"/>
         <v>6.9756473744125219E-2</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550">
         <v>274.5</v>
       </c>
-      <c r="B549">
+      <c r="B550">
         <f t="shared" si="8"/>
         <v>7.8459095727845207E-2</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551">
         <v>275</v>
       </c>
-      <c r="B550">
+      <c r="B551">
         <f t="shared" si="8"/>
         <v>8.7155742747657888E-2</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552">
         <v>275.5</v>
       </c>
-      <c r="B551">
+      <c r="B552">
         <f t="shared" si="8"/>
         <v>9.5845752520224051E-2</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553">
         <v>276</v>
       </c>
-      <c r="B552">
+      <c r="B553">
         <f t="shared" si="8"/>
         <v>0.10452846326765299</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554">
         <v>276.5</v>
       </c>
-      <c r="B553">
+      <c r="B554">
         <f t="shared" si="8"/>
         <v>0.11320321376790658</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555">
         <v>277</v>
       </c>
-      <c r="B554">
+      <c r="B555">
         <f t="shared" si="8"/>
         <v>0.12186934340514768</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556">
         <v>277.5</v>
       </c>
-      <c r="B555">
+      <c r="B556">
         <f t="shared" si="8"/>
         <v>0.13052619222005127</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557">
         <v>278</v>
       </c>
-      <c r="B556">
+      <c r="B557">
         <f t="shared" si="8"/>
         <v>0.13917310096006547</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558">
         <v>278.5</v>
       </c>
-      <c r="B557">
+      <c r="B558">
         <f t="shared" si="8"/>
         <v>0.14780941112961096</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559">
         <v>279</v>
       </c>
-      <c r="B558">
+      <c r="B559">
         <f t="shared" si="8"/>
         <v>0.15643446504023067</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560">
         <v>279.5</v>
       </c>
-      <c r="B559">
+      <c r="B560">
         <f t="shared" si="8"/>
         <v>0.16504760586067779</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561">
         <v>280</v>
       </c>
-      <c r="B560">
+      <c r="B561">
         <f t="shared" si="8"/>
         <v>0.17364817766692997</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562">
         <v>280.5</v>
       </c>
-      <c r="B561">
+      <c r="B562">
         <f t="shared" si="8"/>
         <v>0.18223552549214742</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563">
         <v>281</v>
       </c>
-      <c r="B562">
+      <c r="B563">
         <f t="shared" si="8"/>
         <v>0.19080899537654511</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564">
         <v>281.5</v>
       </c>
-      <c r="B563">
+      <c r="B564">
         <f t="shared" si="8"/>
         <v>0.19936793441719694</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565">
         <v>282</v>
       </c>
-      <c r="B564">
+      <c r="B565">
         <f t="shared" si="8"/>
         <v>0.20791169081775943</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566">
         <v>282.5</v>
       </c>
-      <c r="B565">
+      <c r="B566">
         <f t="shared" si="8"/>
         <v>0.21643961393810246</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567">
         <v>283</v>
       </c>
-      <c r="B566">
+      <c r="B567">
         <f t="shared" si="8"/>
         <v>0.22495105434386492</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568">
         <v>283.5</v>
       </c>
-      <c r="B567">
+      <c r="B568">
         <f t="shared" si="8"/>
         <v>0.23344536385590567</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569">
         <v>284</v>
       </c>
-      <c r="B568">
+      <c r="B569">
         <f t="shared" si="8"/>
         <v>0.24192189559966745</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570">
         <v>284.5</v>
       </c>
-      <c r="B569">
+      <c r="B570">
         <f t="shared" si="8"/>
         <v>0.25038000405444144</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571">
         <v>285</v>
       </c>
-      <c r="B570">
+      <c r="B571">
         <f t="shared" si="8"/>
         <v>0.2588190451025203</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572">
         <v>285.5</v>
       </c>
-      <c r="B571">
+      <c r="B572">
         <f t="shared" si="8"/>
         <v>0.26723837607825673</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573">
         <v>286</v>
       </c>
-      <c r="B572">
+      <c r="B573">
         <f t="shared" si="8"/>
         <v>0.27563735581699939</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574">
         <v>286.5</v>
       </c>
-      <c r="B573">
+      <c r="B574">
         <f t="shared" si="8"/>
         <v>0.28401534470392231</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575">
         <v>287</v>
       </c>
-      <c r="B574">
+      <c r="B575">
         <f t="shared" si="8"/>
         <v>0.29237170472273671</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576">
         <v>287.5</v>
       </c>
-      <c r="B575">
+      <c r="B576">
         <f t="shared" si="8"/>
         <v>0.30070579950427345</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577">
         <v>288</v>
       </c>
-      <c r="B576">
+      <c r="B577">
         <f t="shared" si="8"/>
         <v>0.30901699437494723</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578">
         <v>288.5</v>
       </c>
-      <c r="B577">
+      <c r="B578">
         <f t="shared" si="8"/>
         <v>0.31730465640509226</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578">
-        <v>289</v>
-      </c>
-      <c r="B578">
-        <f t="shared" ref="B578:B641" si="9">COS(RADIANS(A578))</f>
-        <v>0.32556815445715631</v>
-      </c>
-    </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579">
+        <v>289</v>
+      </c>
+      <c r="B579">
+        <f t="shared" ref="B579:B642" si="9">COS(RADIANS(A579))</f>
+        <v>0.32556815445715631</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580">
         <v>289.5</v>
       </c>
-      <c r="B579">
+      <c r="B580">
         <f t="shared" si="9"/>
         <v>0.3338068592337709</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581">
         <v>290</v>
       </c>
-      <c r="B580">
+      <c r="B581">
         <f t="shared" si="9"/>
         <v>0.34202014332566899</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582">
         <v>290.5</v>
       </c>
-      <c r="B581">
+      <c r="B582">
         <f t="shared" si="9"/>
         <v>0.35020738125946721</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583">
         <v>291</v>
       </c>
-      <c r="B582">
+      <c r="B583">
         <f t="shared" si="9"/>
         <v>0.35836794954530038</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584">
         <v>291.5</v>
       </c>
-      <c r="B583">
+      <c r="B584">
         <f t="shared" si="9"/>
         <v>0.36650122672429686</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585">
         <v>292</v>
       </c>
-      <c r="B584">
+      <c r="B585">
         <f t="shared" si="9"/>
         <v>0.37460659341591196</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586">
         <v>292.5</v>
       </c>
-      <c r="B585">
+      <c r="B586">
         <f t="shared" si="9"/>
         <v>0.38268343236509</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587">
         <v>293</v>
       </c>
-      <c r="B586">
+      <c r="B587">
         <f t="shared" si="9"/>
         <v>0.39073112848927349</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588">
         <v>293.5</v>
       </c>
-      <c r="B587">
+      <c r="B588">
         <f t="shared" si="9"/>
         <v>0.39874906892524625</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589">
         <v>294</v>
       </c>
-      <c r="B588">
+      <c r="B589">
         <f t="shared" si="9"/>
         <v>0.40673664307579976</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590">
         <v>294.5</v>
       </c>
-      <c r="B589">
+      <c r="B590">
         <f t="shared" si="9"/>
         <v>0.41469324265623891</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591">
         <v>295</v>
       </c>
-      <c r="B590">
+      <c r="B591">
         <f t="shared" si="9"/>
         <v>0.42261826174069961</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592">
         <v>295.5</v>
       </c>
-      <c r="B591">
+      <c r="B592">
         <f t="shared" si="9"/>
         <v>0.4305110968082948</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593">
         <v>296</v>
       </c>
-      <c r="B592">
+      <c r="B593">
         <f t="shared" si="9"/>
         <v>0.4383711467890774</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594">
         <v>296.5</v>
       </c>
-      <c r="B593">
+      <c r="B594">
         <f t="shared" si="9"/>
         <v>0.4461978131098091</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595">
         <v>297</v>
       </c>
-      <c r="B594">
+      <c r="B595">
         <f t="shared" si="9"/>
         <v>0.45399049973954664</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596">
         <v>297.5</v>
       </c>
-      <c r="B595">
+      <c r="B596">
         <f t="shared" si="9"/>
         <v>0.46174861323503408</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597">
         <v>298</v>
       </c>
-      <c r="B596">
+      <c r="B597">
         <f t="shared" si="9"/>
         <v>0.46947156278589042</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598">
         <v>298.5</v>
       </c>
-      <c r="B597">
+      <c r="B598">
         <f t="shared" si="9"/>
         <v>0.47715876025960835</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599">
         <v>299</v>
       </c>
-      <c r="B598">
+      <c r="B599">
         <f t="shared" si="9"/>
         <v>0.48480962024633728</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600">
         <v>299.5</v>
       </c>
-      <c r="B599">
+      <c r="B600">
         <f t="shared" si="9"/>
         <v>0.49242356010346688</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601">
         <v>300</v>
       </c>
-      <c r="B600">
+      <c r="B601">
         <f t="shared" si="9"/>
         <v>0.50000000000000011</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602">
         <v>300.5</v>
       </c>
-      <c r="B601">
+      <c r="B602">
         <f t="shared" si="9"/>
         <v>0.50753836296070376</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603">
         <v>301</v>
       </c>
-      <c r="B602">
+      <c r="B603">
         <f t="shared" si="9"/>
         <v>0.51503807491005416</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604">
         <v>301.5</v>
       </c>
-      <c r="B603">
+      <c r="B604">
         <f t="shared" si="9"/>
         <v>0.52249856471594902</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605">
         <v>302</v>
       </c>
-      <c r="B604">
+      <c r="B605">
         <f t="shared" si="9"/>
         <v>0.52991926423320468</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606">
         <v>302.5</v>
       </c>
-      <c r="B605">
+      <c r="B606">
         <f t="shared" si="9"/>
         <v>0.53729960834682389</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607">
         <v>303</v>
       </c>
-      <c r="B606">
+      <c r="B607">
         <f t="shared" si="9"/>
         <v>0.54463903501502664</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608">
         <v>303.5</v>
       </c>
-      <c r="B607">
+      <c r="B608">
         <f t="shared" si="9"/>
         <v>0.55193698531205804</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609">
         <v>304</v>
       </c>
-      <c r="B608">
+      <c r="B609">
         <f t="shared" si="9"/>
         <v>0.55919290347074702</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610">
         <v>304.5</v>
       </c>
-      <c r="B609">
+      <c r="B610">
         <f t="shared" si="9"/>
         <v>0.5664062369248325</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611">
         <v>305</v>
       </c>
-      <c r="B610">
+      <c r="B611">
         <f t="shared" si="9"/>
         <v>0.57357643635104605</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612">
         <v>305.5</v>
       </c>
-      <c r="B611">
+      <c r="B612">
         <f t="shared" si="9"/>
         <v>0.58070295571093999</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613">
         <v>306</v>
       </c>
-      <c r="B612">
+      <c r="B613">
         <f t="shared" si="9"/>
         <v>0.58778525229247292</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614">
         <v>306.5</v>
       </c>
-      <c r="B613">
+      <c r="B614">
         <f t="shared" si="9"/>
         <v>0.59482278675134137</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615">
         <v>307</v>
       </c>
-      <c r="B614">
+      <c r="B615">
         <f t="shared" si="9"/>
         <v>0.60181502315204793</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616">
         <v>307.5</v>
       </c>
-      <c r="B615">
+      <c r="B616">
         <f t="shared" si="9"/>
         <v>0.60876142900872054</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617">
         <v>308</v>
       </c>
-      <c r="B616">
+      <c r="B617">
         <f t="shared" si="9"/>
         <v>0.61566147532565851</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618">
         <v>308.5</v>
       </c>
-      <c r="B617">
+      <c r="B618">
         <f t="shared" si="9"/>
         <v>0.6225146366376193</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619">
         <v>309</v>
       </c>
-      <c r="B618">
+      <c r="B619">
         <f t="shared" si="9"/>
         <v>0.6293203910498375</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A619">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620">
         <v>309.5</v>
       </c>
-      <c r="B619">
+      <c r="B620">
         <f t="shared" si="9"/>
         <v>0.63607822027776362</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621">
         <v>310</v>
       </c>
-      <c r="B620">
+      <c r="B621">
         <f t="shared" si="9"/>
         <v>0.64278760968653925</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622">
         <v>310.5</v>
       </c>
-      <c r="B621">
+      <c r="B622">
         <f t="shared" si="9"/>
         <v>0.64944804833018388</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623">
         <v>311</v>
       </c>
-      <c r="B622">
+      <c r="B623">
         <f t="shared" si="9"/>
         <v>0.65605902899050705</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624">
         <v>311.5</v>
       </c>
-      <c r="B623">
+      <c r="B624">
         <f t="shared" si="9"/>
         <v>0.6626200482157375</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A624">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625">
         <v>312</v>
       </c>
-      <c r="B624">
+      <c r="B625">
         <f t="shared" si="9"/>
         <v>0.66913060635885779</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626">
         <v>312.5</v>
       </c>
-      <c r="B625">
+      <c r="B626">
         <f t="shared" si="9"/>
         <v>0.67559020761566013</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627">
         <v>313</v>
       </c>
-      <c r="B626">
+      <c r="B627">
         <f t="shared" si="9"/>
         <v>0.68199836006249859</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628">
         <v>313.5</v>
       </c>
-      <c r="B627">
+      <c r="B628">
         <f t="shared" si="9"/>
         <v>0.68835457569375369</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A628">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629">
         <v>314</v>
       </c>
-      <c r="B628">
+      <c r="B629">
         <f t="shared" si="9"/>
         <v>0.69465837045899725</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630">
         <v>314.5</v>
       </c>
-      <c r="B629">
+      <c r="B630">
         <f t="shared" si="9"/>
         <v>0.70090926429985112</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631">
         <v>315</v>
       </c>
-      <c r="B630">
+      <c r="B631">
         <f t="shared" si="9"/>
         <v>0.70710678118654735</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632">
         <v>315.5</v>
       </c>
-      <c r="B631">
+      <c r="B632">
         <f t="shared" si="9"/>
         <v>0.71325044915418168</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633">
         <v>316</v>
       </c>
-      <c r="B632">
+      <c r="B633">
         <f t="shared" si="9"/>
         <v>0.71933980033865086</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A633">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634">
         <v>316.5</v>
       </c>
-      <c r="B633">
+      <c r="B634">
         <f t="shared" si="9"/>
         <v>0.72537437101228763</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635">
         <v>317</v>
       </c>
-      <c r="B634">
+      <c r="B635">
         <f t="shared" si="9"/>
         <v>0.73135370161917068</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A635">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636">
         <v>317.5</v>
       </c>
-      <c r="B635">
+      <c r="B636">
         <f t="shared" si="9"/>
         <v>0.73727733681012386</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A636">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637">
         <v>318</v>
       </c>
-      <c r="B636">
+      <c r="B637">
         <f t="shared" si="9"/>
         <v>0.74314482547739424</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A637">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638">
         <v>318.5</v>
       </c>
-      <c r="B637">
+      <c r="B638">
         <f t="shared" si="9"/>
         <v>0.74895572078900186</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A638">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639">
         <v>319</v>
       </c>
-      <c r="B638">
+      <c r="B639">
         <f t="shared" si="9"/>
         <v>0.7547095802227719</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640">
         <v>319.5</v>
       </c>
-      <c r="B639">
+      <c r="B640">
         <f t="shared" si="9"/>
         <v>0.76040596560003104</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641">
         <v>320</v>
       </c>
-      <c r="B640">
+      <c r="B641">
         <f t="shared" si="9"/>
         <v>0.76604444311897779</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A641">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642">
         <v>320.5</v>
       </c>
-      <c r="B641">
+      <c r="B642">
         <f t="shared" si="9"/>
         <v>0.77162458338772</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642">
-        <v>321</v>
-      </c>
-      <c r="B642">
-        <f t="shared" ref="B642:B705" si="10">COS(RADIANS(A642))</f>
-        <v>0.77714596145697057</v>
-      </c>
-    </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643">
+        <v>321</v>
+      </c>
+      <c r="B643">
+        <f t="shared" ref="B643:B706" si="10">COS(RADIANS(A643))</f>
+        <v>0.77714596145697057</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644">
         <v>321.5</v>
       </c>
-      <c r="B643">
+      <c r="B644">
         <f t="shared" si="10"/>
         <v>0.78260815685241381</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A644">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645">
         <v>322</v>
       </c>
-      <c r="B644">
+      <c r="B645">
         <f t="shared" si="10"/>
         <v>0.78801075360672201</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A645">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646">
         <v>322.5</v>
       </c>
-      <c r="B645">
+      <c r="B646">
         <f t="shared" si="10"/>
         <v>0.79335334029123494</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A646">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647">
         <v>323</v>
       </c>
-      <c r="B646">
+      <c r="B647">
         <f t="shared" si="10"/>
         <v>0.79863551004729283</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648">
         <v>323.5</v>
       </c>
-      <c r="B647">
+      <c r="B648">
         <f t="shared" si="10"/>
         <v>0.80385686061721751</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649">
         <v>324</v>
       </c>
-      <c r="B648">
+      <c r="B649">
         <f t="shared" si="10"/>
         <v>0.80901699437494734</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A649">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650">
         <v>324.5</v>
       </c>
-      <c r="B649">
+      <c r="B650">
         <f t="shared" si="10"/>
         <v>0.81411551835631935</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A650">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651">
         <v>325</v>
       </c>
-      <c r="B650">
+      <c r="B651">
         <f t="shared" si="10"/>
         <v>0.81915204428899158</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A651">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652">
         <v>325.5</v>
       </c>
-      <c r="B651">
+      <c r="B652">
         <f t="shared" si="10"/>
         <v>0.82412618862201559</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A652">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653">
         <v>326</v>
       </c>
-      <c r="B652">
+      <c r="B653">
         <f t="shared" si="10"/>
         <v>0.82903757255504185</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654">
         <v>326.5</v>
       </c>
-      <c r="B653">
+      <c r="B654">
         <f t="shared" si="10"/>
         <v>0.83388582206716799</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A654">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655">
         <v>327</v>
       </c>
-      <c r="B654">
+      <c r="B655">
         <f t="shared" si="10"/>
         <v>0.83867056794542405</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656">
         <v>327.5</v>
       </c>
-      <c r="B655">
+      <c r="B656">
         <f t="shared" si="10"/>
         <v>0.8433914458128855</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657">
         <v>328</v>
       </c>
-      <c r="B656">
+      <c r="B657">
         <f t="shared" si="10"/>
         <v>0.84804809615642596</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658">
         <v>328.5</v>
       </c>
-      <c r="B657">
+      <c r="B658">
         <f t="shared" si="10"/>
         <v>0.85264016435409229</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659">
         <v>329</v>
       </c>
-      <c r="B658">
+      <c r="B659">
         <f t="shared" si="10"/>
         <v>0.85716730070211211</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660">
         <v>329.5</v>
       </c>
-      <c r="B659">
+      <c r="B660">
         <f t="shared" si="10"/>
         <v>0.86162916044152571</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661">
         <v>330</v>
       </c>
-      <c r="B660">
+      <c r="B661">
         <f t="shared" si="10"/>
         <v>0.86602540378443837</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662">
         <v>330.5</v>
       </c>
-      <c r="B661">
+      <c r="B662">
         <f t="shared" si="10"/>
         <v>0.87035569593989959</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663">
         <v>331</v>
       </c>
-      <c r="B662">
+      <c r="B663">
         <f t="shared" si="10"/>
         <v>0.87461970713939585</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664">
         <v>331.5</v>
       </c>
-      <c r="B663">
+      <c r="B664">
         <f t="shared" si="10"/>
         <v>0.87881711266196516</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665">
         <v>332</v>
       </c>
-      <c r="B664">
+      <c r="B665">
         <f t="shared" si="10"/>
         <v>0.88294759285892688</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A665">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666">
         <v>332.5</v>
       </c>
-      <c r="B665">
+      <c r="B666">
         <f t="shared" si="10"/>
         <v>0.88701083317822182</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A666">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667">
         <v>333</v>
       </c>
-      <c r="B666">
+      <c r="B667">
         <f t="shared" si="10"/>
         <v>0.89100652418836779</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668">
         <v>333.5</v>
       </c>
-      <c r="B667">
+      <c r="B668">
         <f t="shared" si="10"/>
         <v>0.89493436160202511</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669">
         <v>334</v>
       </c>
-      <c r="B668">
+      <c r="B669">
         <f t="shared" si="10"/>
         <v>0.89879404629916682</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670">
         <v>334.5</v>
       </c>
-      <c r="B669">
+      <c r="B670">
         <f t="shared" si="10"/>
         <v>0.90258528434986052</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671">
         <v>335</v>
       </c>
-      <c r="B670">
+      <c r="B671">
         <f t="shared" si="10"/>
         <v>0.90630778703665005</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A671">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672">
         <v>335.5</v>
       </c>
-      <c r="B671">
+      <c r="B672">
         <f t="shared" si="10"/>
         <v>0.9099612708765431</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A672">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673">
         <v>336</v>
       </c>
-      <c r="B672">
+      <c r="B673">
         <f t="shared" si="10"/>
         <v>0.91354545764260098</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A673">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674">
         <v>336.5</v>
       </c>
-      <c r="B673">
+      <c r="B674">
         <f t="shared" si="10"/>
         <v>0.91706007438512382</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A674">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675">
         <v>337</v>
       </c>
-      <c r="B674">
+      <c r="B675">
         <f t="shared" si="10"/>
         <v>0.92050485345244026</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A675">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676">
         <v>337.5</v>
       </c>
-      <c r="B675">
+      <c r="B676">
         <f t="shared" si="10"/>
         <v>0.92387953251128685</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677">
         <v>338</v>
       </c>
-      <c r="B676">
+      <c r="B677">
         <f t="shared" si="10"/>
         <v>0.92718385456678731</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678">
         <v>338.5</v>
       </c>
-      <c r="B677">
+      <c r="B678">
         <f t="shared" si="10"/>
         <v>0.93041756798202457</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679">
         <v>339</v>
       </c>
-      <c r="B678">
+      <c r="B679">
         <f t="shared" si="10"/>
         <v>0.93358042649720152</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680">
         <v>339.5</v>
       </c>
-      <c r="B679">
+      <c r="B680">
         <f t="shared" si="10"/>
         <v>0.93667218924839757</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681">
         <v>340</v>
       </c>
-      <c r="B680">
+      <c r="B681">
         <f t="shared" si="10"/>
         <v>0.93969262078590843</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682">
         <v>340.5</v>
       </c>
-      <c r="B681">
+      <c r="B682">
         <f t="shared" si="10"/>
         <v>0.94264149109217832</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683">
         <v>341</v>
       </c>
-      <c r="B682">
+      <c r="B683">
         <f t="shared" si="10"/>
         <v>0.94551857559931685</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684">
         <v>341.5</v>
       </c>
-      <c r="B683">
+      <c r="B684">
         <f t="shared" si="10"/>
         <v>0.94832365520619943</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A684">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685">
         <v>342</v>
       </c>
-      <c r="B684">
+      <c r="B685">
         <f t="shared" si="10"/>
         <v>0.95105651629515353</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A685">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686">
         <v>342.5</v>
       </c>
-      <c r="B685">
+      <c r="B686">
         <f t="shared" si="10"/>
         <v>0.95371695074822693</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A686">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687">
         <v>343</v>
       </c>
-      <c r="B686">
+      <c r="B687">
         <f t="shared" si="10"/>
         <v>0.95630475596303532</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688">
         <v>343.5</v>
       </c>
-      <c r="B687">
+      <c r="B688">
         <f t="shared" si="10"/>
         <v>0.95881973486819305</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689">
         <v>344</v>
       </c>
-      <c r="B688">
+      <c r="B689">
         <f t="shared" si="10"/>
         <v>0.96126169593831889</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690">
         <v>344.5</v>
       </c>
-      <c r="B689">
+      <c r="B690">
         <f t="shared" si="10"/>
         <v>0.96363045320862295</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691">
         <v>345</v>
       </c>
-      <c r="B690">
+      <c r="B691">
         <f t="shared" si="10"/>
         <v>0.96592582628906831</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692">
         <v>345.5</v>
       </c>
-      <c r="B691">
+      <c r="B692">
         <f t="shared" si="10"/>
         <v>0.96814764037810763</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693">
         <v>346</v>
       </c>
-      <c r="B692">
+      <c r="B693">
         <f t="shared" si="10"/>
         <v>0.97029572627599647</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694">
         <v>346.5</v>
       </c>
-      <c r="B693">
+      <c r="B694">
         <f t="shared" si="10"/>
         <v>0.97236992039767667</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A694">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695">
         <v>347</v>
       </c>
-      <c r="B694">
+      <c r="B695">
         <f t="shared" si="10"/>
         <v>0.97437006478523513</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A695">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696">
         <v>347.5</v>
       </c>
-      <c r="B695">
+      <c r="B696">
         <f t="shared" si="10"/>
         <v>0.97629600711993336</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A696">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697">
         <v>348</v>
       </c>
-      <c r="B696">
+      <c r="B697">
         <f t="shared" si="10"/>
         <v>0.97814760073380558</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698">
         <v>348.5</v>
       </c>
-      <c r="B697">
+      <c r="B698">
         <f t="shared" si="10"/>
         <v>0.97992470462082959</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699">
         <v>349</v>
       </c>
-      <c r="B698">
+      <c r="B699">
         <f t="shared" si="10"/>
         <v>0.98162718344766398</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700">
         <v>349.5</v>
       </c>
-      <c r="B699">
+      <c r="B700">
         <f t="shared" si="10"/>
         <v>0.98325490756395451</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A700">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701">
         <v>350</v>
       </c>
-      <c r="B700">
+      <c r="B701">
         <f t="shared" si="10"/>
         <v>0.98480775301220802</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A701">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702">
         <v>350.5</v>
       </c>
-      <c r="B701">
+      <c r="B702">
         <f t="shared" si="10"/>
         <v>0.98628560153723144</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703">
         <v>351</v>
       </c>
-      <c r="B702">
+      <c r="B703">
         <f t="shared" si="10"/>
         <v>0.98768834059513766</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704">
         <v>351.5</v>
       </c>
-      <c r="B703">
+      <c r="B704">
         <f t="shared" si="10"/>
         <v>0.98901586336191682</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705">
         <v>352</v>
       </c>
-      <c r="B704">
+      <c r="B705">
         <f t="shared" si="10"/>
         <v>0.99026806874157025</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706">
         <v>352.5</v>
       </c>
-      <c r="B705">
+      <c r="B706">
         <f t="shared" si="10"/>
         <v>0.99144486137381038</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706">
-        <v>353</v>
-      </c>
-      <c r="B706">
-        <f t="shared" ref="B706:B719" si="11">COS(RADIANS(A706))</f>
-        <v>0.99254615164132209</v>
-      </c>
-    </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707">
+        <v>353</v>
+      </c>
+      <c r="B707">
+        <f t="shared" ref="B707:B720" si="11">COS(RADIANS(A707))</f>
+        <v>0.99254615164132209</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708">
         <v>353.5</v>
       </c>
-      <c r="B707">
+      <c r="B708">
         <f t="shared" si="11"/>
         <v>0.99357185567658746</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709">
         <v>354</v>
       </c>
-      <c r="B708">
+      <c r="B709">
         <f t="shared" si="11"/>
         <v>0.99452189536827329</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710">
         <v>354.5</v>
       </c>
-      <c r="B709">
+      <c r="B710">
         <f t="shared" si="11"/>
         <v>0.99539619836717874</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711">
         <v>355</v>
       </c>
-      <c r="B710">
+      <c r="B711">
         <f t="shared" si="11"/>
         <v>0.99619469809174555</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712">
         <v>355.5</v>
       </c>
-      <c r="B711">
+      <c r="B712">
         <f t="shared" si="11"/>
         <v>0.99691733373312796</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713">
         <v>356</v>
       </c>
-      <c r="B712">
+      <c r="B713">
         <f t="shared" si="11"/>
         <v>0.9975640502598242</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714">
         <v>356.5</v>
       </c>
-      <c r="B713">
+      <c r="B714">
         <f t="shared" si="11"/>
         <v>0.99813479842186692</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715">
         <v>357</v>
       </c>
-      <c r="B714">
+      <c r="B715">
         <f t="shared" si="11"/>
         <v>0.99862953475457383</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716">
         <v>357.5</v>
       </c>
-      <c r="B715">
+      <c r="B716">
         <f t="shared" si="11"/>
         <v>0.9990482215818578</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717">
         <v>358</v>
       </c>
-      <c r="B716">
+      <c r="B717">
         <f t="shared" si="11"/>
         <v>0.99939082701909576</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718">
         <v>358.5</v>
       </c>
-      <c r="B717">
+      <c r="B718">
         <f t="shared" si="11"/>
         <v>0.99965732497555726</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719">
         <v>359</v>
       </c>
-      <c r="B718">
+      <c r="B719">
         <f t="shared" si="11"/>
         <v>0.99984769515639127</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A719">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720">
         <v>359.5</v>
       </c>
-      <c r="B719">
+      <c r="B720">
         <f t="shared" si="11"/>
         <v>0.99996192306417131</v>
       </c>
